--- a/data/parent_survey.xlsx
+++ b/data/parent_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lispa86/Linköpings universitet/KomLoss - General/KomLoss_data_och_analyser/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gunet-my.sharepoint.com/personal/lisa_palmqvist_gu_se/Documents/Data/KomLoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54962FBE-E66D-8341-B9F2-397C83ED4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{54962FBE-E66D-8341-B9F2-397C83ED4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A10F3D4-7C12-6346-BD89-8D81B48DD78E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="49640" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3312,11 +3312,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -3334,19 +3331,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3691,20 +3694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD98" sqref="AD98"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8" style="5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8" style="6" customWidth="1"/>
     <col min="14" max="21" width="8" customWidth="1"/>
-    <col min="22" max="22" width="8" style="6" customWidth="1"/>
+    <col min="22" max="22" width="8" style="5" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="8" style="8" customWidth="1"/>
+    <col min="24" max="24" width="8" style="6" customWidth="1"/>
     <col min="26" max="28" width="9.1640625" customWidth="1"/>
     <col min="35" max="35" width="20" customWidth="1"/>
     <col min="36" max="36" width="7.6640625" customWidth="1"/>
@@ -3717,242 +3720,242 @@
     <col min="61" max="61" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:79" s="12" customFormat="1" ht="196" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3987,13 +3990,13 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>8</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>66</v>
       </c>
       <c r="N2" t="s">
@@ -4020,13 +4023,13 @@
       <c r="U2">
         <v>1</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <v>8</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="Y2">
@@ -4064,7 +4067,7 @@
       <c r="AH2" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2" s="1">
         <v>39630</v>
       </c>
       <c r="AJ2">
@@ -4231,13 +4234,13 @@
       <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>6</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N3" t="s">
@@ -4264,13 +4267,13 @@
       <c r="U3">
         <v>4</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>7</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="6" t="s">
         <v>86</v>
       </c>
       <c r="Y3">
@@ -4291,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD66" si="2">SUM(D3*3,K3*5,O3*3,V3*5)/2</f>
+        <f t="shared" ref="AD3:AD65" si="2">SUM(D3*3,K3*5,O3*3,V3*5)/2</f>
         <v>41.5</v>
       </c>
       <c r="AE3">
@@ -4308,7 +4311,7 @@
       <c r="AH3" t="s">
         <v>70</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3" s="1">
         <v>40330</v>
       </c>
       <c r="AJ3">
@@ -4475,13 +4478,13 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>8</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>92</v>
       </c>
       <c r="N4" t="s">
@@ -4508,13 +4511,13 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>8</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="Y4">
@@ -4552,7 +4555,7 @@
       <c r="AH4" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="1">
         <v>39995</v>
       </c>
       <c r="AJ4">
@@ -4719,13 +4722,13 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>4</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>104</v>
       </c>
       <c r="N5" t="s">
@@ -4752,13 +4755,13 @@
       <c r="U5">
         <v>5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>3</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="6" t="s">
         <v>105</v>
       </c>
       <c r="Y5">
@@ -4796,7 +4799,7 @@
       <c r="AH5" t="s">
         <v>70</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="1">
         <v>37742</v>
       </c>
       <c r="AJ5">
@@ -4963,13 +4966,13 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>3</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N6" t="s">
@@ -4996,13 +4999,13 @@
       <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>1</v>
       </c>
       <c r="W6">
         <v>9</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="6" t="s">
         <v>116</v>
       </c>
       <c r="Y6">
@@ -5040,7 +5043,7 @@
       <c r="AH6" t="s">
         <v>118</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="1">
         <v>37956</v>
       </c>
       <c r="AJ6">
@@ -5207,13 +5210,13 @@
       <c r="J7">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>3</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>123</v>
       </c>
       <c r="N7" t="s">
@@ -5240,13 +5243,13 @@
       <c r="U7">
         <v>1</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>4</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="6" t="s">
         <v>125</v>
       </c>
       <c r="Y7">
@@ -5284,7 +5287,7 @@
       <c r="AH7" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="1">
         <v>37196</v>
       </c>
       <c r="AJ7">
@@ -5451,13 +5454,13 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>136</v>
       </c>
       <c r="N8" t="s">
@@ -5484,13 +5487,13 @@
       <c r="U8">
         <v>3</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>1</v>
       </c>
       <c r="W8">
         <v>9</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="6" t="s">
         <v>116</v>
       </c>
       <c r="Y8">
@@ -5528,7 +5531,7 @@
       <c r="AH8" t="s">
         <v>70</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="1">
         <v>38687</v>
       </c>
       <c r="AJ8">
@@ -5695,46 +5698,46 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>6</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="W9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y9">
@@ -5772,7 +5775,7 @@
       <c r="AH9" t="s">
         <v>144</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9" s="1">
         <v>38838</v>
       </c>
       <c r="AJ9">
@@ -5939,13 +5942,13 @@
       <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>4</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>150</v>
       </c>
       <c r="N10" t="s">
@@ -5972,13 +5975,13 @@
       <c r="U10">
         <v>2</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>8</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="6" t="s">
         <v>151</v>
       </c>
       <c r="Y10">
@@ -6016,7 +6019,7 @@
       <c r="AH10" t="s">
         <v>70</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10" s="1">
         <v>38534</v>
       </c>
       <c r="AJ10">
@@ -6183,13 +6186,13 @@
       <c r="J11">
         <v>4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>6</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>157</v>
       </c>
       <c r="N11" t="s">
@@ -6216,13 +6219,13 @@
       <c r="U11">
         <v>5</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>8</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="6" t="s">
         <v>158</v>
       </c>
       <c r="Y11">
@@ -6260,7 +6263,7 @@
       <c r="AH11" t="s">
         <v>70</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="1">
         <v>39295</v>
       </c>
       <c r="AJ11">
@@ -6427,13 +6430,13 @@
       <c r="J12">
         <v>2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>5</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="6" t="s">
         <v>164</v>
       </c>
       <c r="N12" t="s">
@@ -6460,13 +6463,13 @@
       <c r="U12">
         <v>1</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>7</v>
       </c>
       <c r="W12">
         <v>3</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="6" t="s">
         <v>166</v>
       </c>
       <c r="Y12">
@@ -6504,7 +6507,7 @@
       <c r="AH12" t="s">
         <v>167</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="1">
         <v>40179</v>
       </c>
       <c r="AJ12">
@@ -6671,13 +6674,13 @@
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>6</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>172</v>
       </c>
       <c r="N13" t="s">
@@ -6704,13 +6707,13 @@
       <c r="U13">
         <v>2</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>3</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X13" s="6" t="s">
         <v>173</v>
       </c>
       <c r="Y13">
@@ -6748,16 +6751,16 @@
       <c r="AH13" t="s">
         <v>174</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AI13" s="1">
         <v>40452</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AK13" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="6">
+      <c r="AK13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="5">
         <v>3</v>
       </c>
       <c r="AM13">
@@ -6915,13 +6918,13 @@
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>5</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>181</v>
       </c>
       <c r="N14" t="s">
@@ -6948,13 +6951,13 @@
       <c r="U14" t="s">
         <v>72</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>6</v>
       </c>
       <c r="W14">
         <v>3</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="6" t="s">
         <v>182</v>
       </c>
       <c r="Y14">
@@ -6992,7 +6995,7 @@
       <c r="AH14" t="s">
         <v>70</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14" s="1">
         <v>38596</v>
       </c>
       <c r="AJ14">
@@ -7159,13 +7162,13 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>1</v>
       </c>
       <c r="L15">
         <v>9</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>188</v>
       </c>
       <c r="N15" t="s">
@@ -7192,13 +7195,13 @@
       <c r="U15">
         <v>1</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>1</v>
       </c>
       <c r="W15">
         <v>9</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" s="6" t="s">
         <v>189</v>
       </c>
       <c r="Y15">
@@ -7236,7 +7239,7 @@
       <c r="AH15" t="s">
         <v>190</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15" s="1">
         <v>38596</v>
       </c>
       <c r="AJ15">
@@ -7403,13 +7406,13 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>3</v>
       </c>
       <c r="L16">
         <v>8</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N16" t="s">
@@ -7436,13 +7439,13 @@
       <c r="U16">
         <v>3</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>1</v>
       </c>
       <c r="W16">
         <v>9</v>
       </c>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="6" t="s">
         <v>196</v>
       </c>
       <c r="Y16">
@@ -7480,7 +7483,7 @@
       <c r="AH16" t="s">
         <v>197</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AI16" s="1">
         <v>40544</v>
       </c>
       <c r="AJ16">
@@ -7647,19 +7650,19 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>3</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>203</v>
       </c>
       <c r="N17" t="s">
         <v>143</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P17" t="s">
@@ -7680,13 +7683,13 @@
       <c r="U17" t="s">
         <v>143</v>
       </c>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W17" t="s">
         <v>143</v>
       </c>
-      <c r="X17" s="8" t="s">
+      <c r="X17" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y17">
@@ -7724,7 +7727,7 @@
       <c r="AH17" t="s">
         <v>204</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AI17" s="1">
         <v>40238</v>
       </c>
       <c r="AJ17">
@@ -7891,13 +7894,13 @@
       <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>9</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="6" t="s">
         <v>206</v>
       </c>
       <c r="N18" t="s">
@@ -7924,13 +7927,13 @@
       <c r="U18">
         <v>2</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>9</v>
       </c>
       <c r="W18">
         <v>2</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="X18" s="6" t="s">
         <v>206</v>
       </c>
       <c r="Y18">
@@ -7968,7 +7971,7 @@
       <c r="AH18" t="s">
         <v>207</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18" s="1">
         <v>39203</v>
       </c>
       <c r="AJ18">
@@ -8135,13 +8138,13 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>3</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>209</v>
       </c>
       <c r="N19" t="s">
@@ -8168,13 +8171,13 @@
       <c r="U19">
         <v>2</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>3</v>
       </c>
       <c r="W19">
         <v>5</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="6" t="s">
         <v>209</v>
       </c>
       <c r="Y19">
@@ -8212,7 +8215,7 @@
       <c r="AH19" t="s">
         <v>210</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI19" s="1">
         <v>38534</v>
       </c>
       <c r="AJ19">
@@ -8379,19 +8382,19 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>1</v>
       </c>
       <c r="L20">
         <v>9</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>116</v>
       </c>
       <c r="N20" t="s">
         <v>143</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P20" t="s">
@@ -8412,13 +8415,13 @@
       <c r="U20" t="s">
         <v>143</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W20" t="s">
         <v>143</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y20" t="s">
@@ -8456,7 +8459,7 @@
       <c r="AH20" t="s">
         <v>212</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20" s="1">
         <v>37591</v>
       </c>
       <c r="AJ20">
@@ -8623,19 +8626,19 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>3</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="6" t="s">
         <v>214</v>
       </c>
       <c r="N21" t="s">
         <v>143</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P21" t="s">
@@ -8656,13 +8659,13 @@
       <c r="U21" t="s">
         <v>143</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W21" t="s">
         <v>143</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y21">
@@ -8700,7 +8703,7 @@
       <c r="AH21" t="s">
         <v>70</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AI21" s="1">
         <v>36923</v>
       </c>
       <c r="AJ21">
@@ -8867,13 +8870,13 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>3</v>
       </c>
       <c r="L22">
         <v>8</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="6" t="s">
         <v>219</v>
       </c>
       <c r="N22" t="s">
@@ -8900,13 +8903,13 @@
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>4</v>
       </c>
       <c r="W22">
         <v>5</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="6" t="s">
         <v>220</v>
       </c>
       <c r="Y22">
@@ -8944,7 +8947,7 @@
       <c r="AH22" t="s">
         <v>70</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI22" s="1">
         <v>37226</v>
       </c>
       <c r="AJ22">
@@ -9111,13 +9114,13 @@
       <c r="J23">
         <v>2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>3</v>
       </c>
       <c r="L23">
         <v>5</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="6" t="s">
         <v>230</v>
       </c>
       <c r="N23" t="s">
@@ -9144,13 +9147,13 @@
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="5">
         <v>5</v>
       </c>
       <c r="W23">
         <v>5</v>
       </c>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="6" t="s">
         <v>231</v>
       </c>
       <c r="Y23">
@@ -9188,7 +9191,7 @@
       <c r="AH23" t="s">
         <v>70</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AI23" s="1">
         <v>36951</v>
       </c>
       <c r="AJ23">
@@ -9355,13 +9358,13 @@
       <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>2</v>
       </c>
       <c r="L24">
         <v>9</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="6" t="s">
         <v>236</v>
       </c>
       <c r="N24" t="s">
@@ -9388,13 +9391,13 @@
       <c r="U24">
         <v>4</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>2</v>
       </c>
       <c r="W24">
         <v>9</v>
       </c>
-      <c r="X24" s="8" t="s">
+      <c r="X24" s="6" t="s">
         <v>236</v>
       </c>
       <c r="Y24">
@@ -9432,7 +9435,7 @@
       <c r="AH24" t="s">
         <v>70</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24" s="1">
         <v>37865</v>
       </c>
       <c r="AJ24">
@@ -9599,13 +9602,13 @@
       <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>7</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="6" t="s">
         <v>242</v>
       </c>
       <c r="N25" t="s">
@@ -9632,13 +9635,13 @@
       <c r="U25">
         <v>2</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="5">
         <v>5</v>
       </c>
       <c r="W25">
         <v>3</v>
       </c>
-      <c r="X25" s="8" t="s">
+      <c r="X25" s="6" t="s">
         <v>243</v>
       </c>
       <c r="Y25">
@@ -9676,7 +9679,7 @@
       <c r="AH25" t="s">
         <v>70</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25" s="1">
         <v>39814</v>
       </c>
       <c r="AJ25">
@@ -9843,13 +9846,13 @@
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>4</v>
       </c>
       <c r="L26">
         <v>7</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="6" t="s">
         <v>257</v>
       </c>
       <c r="N26" t="s">
@@ -9876,13 +9879,13 @@
       <c r="U26">
         <v>2</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="5">
         <v>7</v>
       </c>
       <c r="W26">
         <v>2</v>
       </c>
-      <c r="X26" s="8" t="s">
+      <c r="X26" s="6" t="s">
         <v>258</v>
       </c>
       <c r="Y26">
@@ -9920,7 +9923,7 @@
       <c r="AH26" t="s">
         <v>70</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="1">
         <v>40756</v>
       </c>
       <c r="AJ26">
@@ -10087,19 +10090,19 @@
       <c r="J27">
         <v>4</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>9</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="6" t="s">
         <v>261</v>
       </c>
       <c r="N27" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P27" t="s">
@@ -10120,13 +10123,13 @@
       <c r="U27">
         <v>3</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="5">
         <v>8</v>
       </c>
       <c r="W27">
         <v>2</v>
       </c>
-      <c r="X27" s="8" t="s">
+      <c r="X27" s="6" t="s">
         <v>262</v>
       </c>
       <c r="Y27">
@@ -10164,7 +10167,7 @@
       <c r="AH27" t="s">
         <v>70</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27" s="1">
         <v>39448</v>
       </c>
       <c r="AJ27">
@@ -10331,19 +10334,19 @@
       <c r="J28">
         <v>5</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>3</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="6" t="s">
         <v>268</v>
       </c>
       <c r="N28" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P28" t="s">
@@ -10364,13 +10367,13 @@
       <c r="U28" t="s">
         <v>143</v>
       </c>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W28" t="s">
         <v>143</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="X28" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y28">
@@ -10408,7 +10411,7 @@
       <c r="AH28" t="s">
         <v>269</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AI28" s="1">
         <v>38473</v>
       </c>
       <c r="AJ28">
@@ -10575,13 +10578,13 @@
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>6</v>
       </c>
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="6" t="s">
         <v>275</v>
       </c>
       <c r="N29" t="s">
@@ -10608,13 +10611,13 @@
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="5">
         <v>6</v>
       </c>
       <c r="W29">
         <v>5</v>
       </c>
-      <c r="X29" s="8" t="s">
+      <c r="X29" s="6" t="s">
         <v>276</v>
       </c>
       <c r="Y29">
@@ -10652,7 +10655,7 @@
       <c r="AH29" t="s">
         <v>70</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AI29" s="1">
         <v>38200</v>
       </c>
       <c r="AJ29">
@@ -10819,13 +10822,13 @@
       <c r="J30">
         <v>4</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>4</v>
       </c>
       <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="6" t="s">
         <v>281</v>
       </c>
       <c r="N30" t="s">
@@ -10852,13 +10855,13 @@
       <c r="U30">
         <v>1</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="5">
         <v>2</v>
       </c>
       <c r="W30">
         <v>9</v>
       </c>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="6" t="s">
         <v>282</v>
       </c>
       <c r="Y30">
@@ -10896,7 +10899,7 @@
       <c r="AH30" t="s">
         <v>167</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AI30" s="1">
         <v>38899</v>
       </c>
       <c r="AJ30">
@@ -11063,13 +11066,13 @@
       <c r="J31">
         <v>4</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>9</v>
       </c>
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="6" t="s">
         <v>206</v>
       </c>
       <c r="N31" t="s">
@@ -11096,13 +11099,13 @@
       <c r="U31">
         <v>4</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="5">
         <v>9</v>
       </c>
       <c r="W31">
         <v>2</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="6" t="s">
         <v>206</v>
       </c>
       <c r="Y31">
@@ -11140,7 +11143,7 @@
       <c r="AH31" t="s">
         <v>70</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AI31" s="1">
         <v>39173</v>
       </c>
       <c r="AJ31">
@@ -11307,13 +11310,13 @@
       <c r="J32">
         <v>4</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>6</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="6" t="s">
         <v>291</v>
       </c>
       <c r="N32" t="s">
@@ -11340,13 +11343,13 @@
       <c r="U32">
         <v>1</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="5">
         <v>3</v>
       </c>
       <c r="W32">
         <v>8</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="6" t="s">
         <v>292</v>
       </c>
       <c r="Y32">
@@ -11384,7 +11387,7 @@
       <c r="AH32" t="s">
         <v>293</v>
       </c>
-      <c r="AI32" s="2">
+      <c r="AI32" s="1">
         <v>40979</v>
       </c>
       <c r="AJ32">
@@ -11551,13 +11554,13 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>7</v>
       </c>
       <c r="L33">
         <v>2</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>303</v>
       </c>
       <c r="N33" t="s">
@@ -11584,13 +11587,13 @@
       <c r="U33">
         <v>3</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="5">
         <v>6</v>
       </c>
       <c r="W33">
         <v>3</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" s="6" t="s">
         <v>304</v>
       </c>
       <c r="Y33">
@@ -11628,7 +11631,7 @@
       <c r="AH33" t="s">
         <v>305</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AI33" s="1">
         <v>39194</v>
       </c>
       <c r="AJ33">
@@ -11795,13 +11798,13 @@
       <c r="J34">
         <v>2</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>6</v>
       </c>
       <c r="L34">
         <v>2</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="6" t="s">
         <v>275</v>
       </c>
       <c r="N34" t="s">
@@ -11828,13 +11831,13 @@
       <c r="U34">
         <v>4</v>
       </c>
-      <c r="V34" s="6">
+      <c r="V34" s="5">
         <v>4</v>
       </c>
       <c r="W34">
         <v>7</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="X34" s="6" t="s">
         <v>310</v>
       </c>
       <c r="Y34">
@@ -11872,7 +11875,7 @@
       <c r="AH34" t="s">
         <v>70</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AI34" s="1">
         <v>39257</v>
       </c>
       <c r="AJ34">
@@ -12039,13 +12042,13 @@
       <c r="J35">
         <v>4</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>7</v>
       </c>
       <c r="L35">
         <v>2</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="6" t="s">
         <v>316</v>
       </c>
       <c r="N35" t="s">
@@ -12072,13 +12075,13 @@
       <c r="U35">
         <v>4</v>
       </c>
-      <c r="V35" s="6">
+      <c r="V35" s="5">
         <v>7</v>
       </c>
       <c r="W35">
         <v>3</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="X35" s="6" t="s">
         <v>317</v>
       </c>
       <c r="Y35">
@@ -12116,7 +12119,7 @@
       <c r="AH35" t="s">
         <v>318</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AI35" s="1">
         <v>39646</v>
       </c>
       <c r="AJ35">
@@ -12283,13 +12286,13 @@
       <c r="J36">
         <v>2</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>4</v>
       </c>
       <c r="L36">
         <v>3</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N36" t="s">
@@ -12316,13 +12319,13 @@
       <c r="U36">
         <v>1</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="5">
         <v>4</v>
       </c>
       <c r="W36">
         <v>5</v>
       </c>
-      <c r="X36" s="8" t="s">
+      <c r="X36" s="6" t="s">
         <v>324</v>
       </c>
       <c r="Y36">
@@ -12360,7 +12363,7 @@
       <c r="AH36" t="s">
         <v>70</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AI36" s="1">
         <v>38692</v>
       </c>
       <c r="AJ36">
@@ -12527,13 +12530,13 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>8</v>
       </c>
       <c r="L37">
         <v>2</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="6" t="s">
         <v>329</v>
       </c>
       <c r="N37" t="s">
@@ -12560,13 +12563,13 @@
       <c r="U37">
         <v>3</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="5">
         <v>6</v>
       </c>
       <c r="W37">
         <v>3</v>
       </c>
-      <c r="X37" s="8" t="s">
+      <c r="X37" s="6" t="s">
         <v>330</v>
       </c>
       <c r="Y37">
@@ -12604,7 +12607,7 @@
       <c r="AH37" t="s">
         <v>70</v>
       </c>
-      <c r="AI37" s="2">
+      <c r="AI37" s="1">
         <v>37420</v>
       </c>
       <c r="AJ37" t="s">
@@ -12771,19 +12774,19 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>9</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="6" t="s">
         <v>334</v>
       </c>
       <c r="N38" t="s">
         <v>143</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P38" t="s">
@@ -12804,13 +12807,13 @@
       <c r="U38" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="6" t="s">
+      <c r="V38" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W38" t="s">
         <v>143</v>
       </c>
-      <c r="X38" s="8" t="s">
+      <c r="X38" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y38" t="s">
@@ -12848,7 +12851,7 @@
       <c r="AH38" t="s">
         <v>70</v>
       </c>
-      <c r="AI38" s="2">
+      <c r="AI38" s="1">
         <v>36996</v>
       </c>
       <c r="AJ38">
@@ -13015,13 +13018,13 @@
       <c r="J39">
         <v>5</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>9</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="6" t="s">
         <v>338</v>
       </c>
       <c r="N39" t="s">
@@ -13048,13 +13051,13 @@
       <c r="U39">
         <v>5</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="5">
         <v>7</v>
       </c>
       <c r="W39">
         <v>2</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="X39" s="6" t="s">
         <v>339</v>
       </c>
       <c r="Y39">
@@ -13092,7 +13095,7 @@
       <c r="AH39" t="s">
         <v>340</v>
       </c>
-      <c r="AI39" s="2">
+      <c r="AI39" s="1">
         <v>37769</v>
       </c>
       <c r="AJ39">
@@ -13259,13 +13262,13 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>9</v>
       </c>
       <c r="L40">
         <v>2</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="6" t="s">
         <v>206</v>
       </c>
       <c r="N40" t="s">
@@ -13292,13 +13295,13 @@
       <c r="U40">
         <v>1</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="5">
         <v>5</v>
       </c>
       <c r="W40">
         <v>3</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" s="6" t="s">
         <v>350</v>
       </c>
       <c r="Y40">
@@ -13336,7 +13339,7 @@
       <c r="AH40" t="s">
         <v>70</v>
       </c>
-      <c r="AI40" s="2">
+      <c r="AI40" s="1">
         <v>37571</v>
       </c>
       <c r="AJ40">
@@ -13503,13 +13506,13 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>7</v>
       </c>
       <c r="L41">
         <v>2</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="6" t="s">
         <v>358</v>
       </c>
       <c r="N41" t="s">
@@ -13536,13 +13539,13 @@
       <c r="U41">
         <v>1</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="5">
         <v>8</v>
       </c>
       <c r="W41">
         <v>2</v>
       </c>
-      <c r="X41" s="8" t="s">
+      <c r="X41" s="6" t="s">
         <v>359</v>
       </c>
       <c r="Y41">
@@ -13580,7 +13583,7 @@
       <c r="AH41" t="s">
         <v>70</v>
       </c>
-      <c r="AI41" s="2">
+      <c r="AI41" s="1">
         <v>38958</v>
       </c>
       <c r="AJ41">
@@ -13747,13 +13750,13 @@
       <c r="J42">
         <v>3</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>4</v>
       </c>
       <c r="L42">
         <v>7</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="6" t="s">
         <v>365</v>
       </c>
       <c r="N42" t="s">
@@ -13780,13 +13783,13 @@
       <c r="U42">
         <v>3</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="5">
         <v>3</v>
       </c>
       <c r="W42">
         <v>5</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" s="6" t="s">
         <v>366</v>
       </c>
       <c r="Y42">
@@ -13824,7 +13827,7 @@
       <c r="AH42" t="s">
         <v>367</v>
       </c>
-      <c r="AI42" s="2">
+      <c r="AI42" s="1">
         <v>37409</v>
       </c>
       <c r="AJ42">
@@ -13991,13 +13994,13 @@
       <c r="J43">
         <v>2</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>6</v>
       </c>
       <c r="L43">
         <v>2</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="6" t="s">
         <v>372</v>
       </c>
       <c r="N43" t="s">
@@ -14024,13 +14027,13 @@
       <c r="U43">
         <v>1</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="5">
         <v>4</v>
       </c>
       <c r="W43">
         <v>7</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="X43" s="6" t="s">
         <v>373</v>
       </c>
       <c r="Y43">
@@ -14068,7 +14071,7 @@
       <c r="AH43" t="s">
         <v>70</v>
       </c>
-      <c r="AI43" s="2">
+      <c r="AI43" s="1">
         <v>36315</v>
       </c>
       <c r="AJ43">
@@ -14235,13 +14238,13 @@
       <c r="J44">
         <v>1</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>3</v>
       </c>
       <c r="L44">
         <v>5</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="6" t="s">
         <v>378</v>
       </c>
       <c r="N44" t="s">
@@ -14268,13 +14271,13 @@
       <c r="U44">
         <v>1</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="5">
         <v>3</v>
       </c>
       <c r="W44">
         <v>7</v>
       </c>
-      <c r="X44" s="8" t="s">
+      <c r="X44" s="6" t="s">
         <v>379</v>
       </c>
       <c r="Y44">
@@ -14312,7 +14315,7 @@
       <c r="AH44" t="s">
         <v>70</v>
       </c>
-      <c r="AI44" s="2">
+      <c r="AI44" s="1">
         <v>40938</v>
       </c>
       <c r="AJ44">
@@ -14479,13 +14482,13 @@
       <c r="J45">
         <v>5</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>3</v>
       </c>
       <c r="L45">
         <v>5</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="6" t="s">
         <v>386</v>
       </c>
       <c r="N45" t="s">
@@ -14512,13 +14515,13 @@
       <c r="U45">
         <v>4</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="5">
         <v>3</v>
       </c>
       <c r="W45">
         <v>5</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="X45" s="6" t="s">
         <v>209</v>
       </c>
       <c r="Y45">
@@ -14556,7 +14559,7 @@
       <c r="AH45" t="s">
         <v>387</v>
       </c>
-      <c r="AI45" s="2">
+      <c r="AI45" s="1">
         <v>37593</v>
       </c>
       <c r="AJ45">
@@ -14723,46 +14726,46 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>3</v>
       </c>
       <c r="L46">
         <v>5</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="P46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="S46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="T46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V46" s="11" t="s">
+      <c r="V46" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="W46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="X46" s="6" t="s">
         <v>397</v>
       </c>
       <c r="Y46" t="s">
@@ -14800,7 +14803,7 @@
       <c r="AH46" t="s">
         <v>398</v>
       </c>
-      <c r="AI46" s="2">
+      <c r="AI46" s="1">
         <v>37284</v>
       </c>
       <c r="AJ46">
@@ -14967,46 +14970,46 @@
       <c r="J47">
         <v>2</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>3</v>
       </c>
       <c r="L47">
         <v>5</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V47" s="11" t="s">
+      <c r="V47" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="X47" s="6" t="s">
         <v>402</v>
       </c>
       <c r="Y47">
@@ -15044,7 +15047,7 @@
       <c r="AH47" t="s">
         <v>387</v>
       </c>
-      <c r="AI47" s="2">
+      <c r="AI47" s="1">
         <v>36211</v>
       </c>
       <c r="AJ47">
@@ -15211,13 +15214,13 @@
       <c r="J48">
         <v>3</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>7</v>
       </c>
       <c r="L48">
         <v>2</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="6" t="s">
         <v>407</v>
       </c>
       <c r="N48" t="s">
@@ -15244,13 +15247,13 @@
       <c r="U48">
         <v>3</v>
       </c>
-      <c r="V48" s="6">
+      <c r="V48" s="5">
         <v>3</v>
       </c>
       <c r="W48">
         <v>5</v>
       </c>
-      <c r="X48" s="8" t="s">
+      <c r="X48" s="6" t="s">
         <v>209</v>
       </c>
       <c r="Y48">
@@ -15288,7 +15291,7 @@
       <c r="AH48" t="s">
         <v>70</v>
       </c>
-      <c r="AI48" s="2">
+      <c r="AI48" s="1">
         <v>38046</v>
       </c>
       <c r="AJ48">
@@ -15455,13 +15458,13 @@
       <c r="J49">
         <v>2</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>3</v>
       </c>
       <c r="L49">
         <v>5</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="6" t="s">
         <v>414</v>
       </c>
       <c r="N49" t="s">
@@ -15488,13 +15491,13 @@
       <c r="U49">
         <v>1</v>
       </c>
-      <c r="V49" s="6">
+      <c r="V49" s="5">
         <v>5</v>
       </c>
       <c r="W49">
         <v>3</v>
       </c>
-      <c r="X49" s="8" t="s">
+      <c r="X49" s="6" t="s">
         <v>415</v>
       </c>
       <c r="Y49">
@@ -15532,7 +15535,7 @@
       <c r="AH49" t="s">
         <v>416</v>
       </c>
-      <c r="AI49" s="2">
+      <c r="AI49" s="1">
         <v>39081</v>
       </c>
       <c r="AJ49">
@@ -15699,13 +15702,13 @@
       <c r="J50">
         <v>4</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>8</v>
       </c>
       <c r="L50">
         <v>2</v>
       </c>
-      <c r="M50" s="8" t="s">
+      <c r="M50" s="6" t="s">
         <v>420</v>
       </c>
       <c r="N50" t="s">
@@ -15732,13 +15735,13 @@
       <c r="U50">
         <v>4</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V50" s="5">
         <v>8</v>
       </c>
       <c r="W50">
         <v>3</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="X50" s="6" t="s">
         <v>421</v>
       </c>
       <c r="Y50">
@@ -15776,7 +15779,7 @@
       <c r="AH50" t="s">
         <v>422</v>
       </c>
-      <c r="AI50" s="2">
+      <c r="AI50" s="1">
         <v>38454</v>
       </c>
       <c r="AJ50">
@@ -15943,13 +15946,13 @@
       <c r="J51">
         <v>3</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>5</v>
       </c>
       <c r="L51">
         <v>5</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N51" t="s">
@@ -15976,13 +15979,13 @@
       <c r="U51">
         <v>3</v>
       </c>
-      <c r="V51" s="6">
+      <c r="V51" s="5">
         <v>7</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
-      <c r="X51" s="8" t="s">
+      <c r="X51" s="6" t="s">
         <v>427</v>
       </c>
       <c r="Y51">
@@ -16020,7 +16023,7 @@
       <c r="AH51" t="s">
         <v>70</v>
       </c>
-      <c r="AI51" s="2">
+      <c r="AI51" s="1">
         <v>38386</v>
       </c>
       <c r="AJ51">
@@ -16187,13 +16190,13 @@
       <c r="J52">
         <v>2</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>6</v>
       </c>
       <c r="L52">
         <v>2</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="6" t="s">
         <v>433</v>
       </c>
       <c r="N52" t="s">
@@ -16220,13 +16223,13 @@
       <c r="U52">
         <v>3</v>
       </c>
-      <c r="V52" s="6">
+      <c r="V52" s="5">
         <v>7</v>
       </c>
       <c r="W52">
         <v>3</v>
       </c>
-      <c r="X52" s="8" t="s">
+      <c r="X52" s="6" t="s">
         <v>434</v>
       </c>
       <c r="Y52">
@@ -16264,7 +16267,7 @@
       <c r="AH52" t="s">
         <v>70</v>
       </c>
-      <c r="AI52" s="2">
+      <c r="AI52" s="1">
         <v>39155</v>
       </c>
       <c r="AJ52">
@@ -16431,13 +16434,13 @@
       <c r="J53">
         <v>3</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>8</v>
       </c>
       <c r="L53">
         <v>4</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="6" t="s">
         <v>440</v>
       </c>
       <c r="N53" t="s">
@@ -16464,13 +16467,13 @@
       <c r="U53">
         <v>3</v>
       </c>
-      <c r="V53" s="6">
+      <c r="V53" s="5">
         <v>7</v>
       </c>
       <c r="W53">
         <v>3</v>
       </c>
-      <c r="X53" s="8" t="s">
+      <c r="X53" s="6" t="s">
         <v>441</v>
       </c>
       <c r="Y53">
@@ -16508,7 +16511,7 @@
       <c r="AH53" t="s">
         <v>70</v>
       </c>
-      <c r="AI53" s="2">
+      <c r="AI53" s="1">
         <v>39267</v>
       </c>
       <c r="AJ53">
@@ -16675,13 +16678,13 @@
       <c r="J54">
         <v>3</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>7</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="6" t="s">
         <v>358</v>
       </c>
       <c r="N54" t="s">
@@ -16708,13 +16711,13 @@
       <c r="U54">
         <v>3</v>
       </c>
-      <c r="V54" s="6">
+      <c r="V54" s="5">
         <v>5</v>
       </c>
       <c r="W54">
         <v>3</v>
       </c>
-      <c r="X54" s="8" t="s">
+      <c r="X54" s="6" t="s">
         <v>448</v>
       </c>
       <c r="Y54">
@@ -16752,7 +16755,7 @@
       <c r="AH54" t="s">
         <v>449</v>
       </c>
-      <c r="AI54" s="2">
+      <c r="AI54" s="1">
         <v>37536</v>
       </c>
       <c r="AJ54">
@@ -16919,13 +16922,13 @@
       <c r="J55">
         <v>2</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>3</v>
       </c>
       <c r="L55">
         <v>4</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="6" t="s">
         <v>456</v>
       </c>
       <c r="N55" t="s">
@@ -16952,13 +16955,13 @@
       <c r="U55" t="s">
         <v>143</v>
       </c>
-      <c r="V55" s="6">
+      <c r="V55" s="5">
         <v>6</v>
       </c>
       <c r="W55">
         <v>3</v>
       </c>
-      <c r="X55" s="8" t="s">
+      <c r="X55" s="6" t="s">
         <v>457</v>
       </c>
       <c r="Y55">
@@ -16996,7 +16999,7 @@
       <c r="AH55" t="s">
         <v>70</v>
       </c>
-      <c r="AI55" s="2">
+      <c r="AI55" s="1">
         <v>37757</v>
       </c>
       <c r="AJ55" t="s">
@@ -17163,13 +17166,13 @@
       <c r="J56">
         <v>2</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>3</v>
       </c>
       <c r="L56">
         <v>5</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="6" t="s">
         <v>464</v>
       </c>
       <c r="N56" t="s">
@@ -17196,13 +17199,13 @@
       <c r="U56">
         <v>1</v>
       </c>
-      <c r="V56" s="6">
+      <c r="V56" s="5">
         <v>3</v>
       </c>
       <c r="W56">
         <v>8</v>
       </c>
-      <c r="X56" s="8" t="s">
+      <c r="X56" s="6" t="s">
         <v>465</v>
       </c>
       <c r="Y56">
@@ -17240,7 +17243,7 @@
       <c r="AH56" t="s">
         <v>70</v>
       </c>
-      <c r="AI56" s="2">
+      <c r="AI56" s="1">
         <v>37633</v>
       </c>
       <c r="AJ56">
@@ -17407,13 +17410,13 @@
       <c r="J57">
         <v>3</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>4</v>
       </c>
       <c r="L57">
         <v>5</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="M57" s="6" t="s">
         <v>470</v>
       </c>
       <c r="N57" t="s">
@@ -17440,13 +17443,13 @@
       <c r="U57">
         <v>3</v>
       </c>
-      <c r="V57" s="6">
+      <c r="V57" s="5">
         <v>9</v>
       </c>
       <c r="W57">
         <v>1</v>
       </c>
-      <c r="X57" s="8" t="s">
+      <c r="X57" s="6" t="s">
         <v>471</v>
       </c>
       <c r="Y57">
@@ -17484,7 +17487,7 @@
       <c r="AH57" t="s">
         <v>472</v>
       </c>
-      <c r="AI57" s="2">
+      <c r="AI57" s="1">
         <v>37388</v>
       </c>
       <c r="AJ57">
@@ -17651,13 +17654,13 @@
       <c r="J58">
         <v>2</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>3</v>
       </c>
       <c r="L58">
         <v>5</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="6" t="s">
         <v>479</v>
       </c>
       <c r="N58" t="s">
@@ -17684,13 +17687,13 @@
       <c r="U58">
         <v>2</v>
       </c>
-      <c r="V58" s="6">
+      <c r="V58" s="5">
         <v>8</v>
       </c>
       <c r="W58">
         <v>3</v>
       </c>
-      <c r="X58" s="8" t="s">
+      <c r="X58" s="6" t="s">
         <v>480</v>
       </c>
       <c r="Y58">
@@ -17728,7 +17731,7 @@
       <c r="AH58" t="s">
         <v>318</v>
       </c>
-      <c r="AI58" s="2">
+      <c r="AI58" s="1">
         <v>37990</v>
       </c>
       <c r="AJ58">
@@ -17895,13 +17898,13 @@
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>3</v>
       </c>
       <c r="L59">
         <v>5</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="6" t="s">
         <v>485</v>
       </c>
       <c r="N59" t="s">
@@ -17928,13 +17931,13 @@
       <c r="U59">
         <v>2</v>
       </c>
-      <c r="V59" s="6">
+      <c r="V59" s="5">
         <v>1</v>
       </c>
       <c r="W59">
         <v>9</v>
       </c>
-      <c r="X59" s="8" t="s">
+      <c r="X59" s="6" t="s">
         <v>486</v>
       </c>
       <c r="Y59">
@@ -17972,7 +17975,7 @@
       <c r="AH59" t="s">
         <v>487</v>
       </c>
-      <c r="AI59" s="2">
+      <c r="AI59" s="1">
         <v>37508</v>
       </c>
       <c r="AJ59">
@@ -18139,13 +18142,13 @@
       <c r="J60">
         <v>2</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>3</v>
       </c>
       <c r="L60">
         <v>5</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="6" t="s">
         <v>493</v>
       </c>
       <c r="N60" t="s">
@@ -18172,13 +18175,13 @@
       <c r="U60">
         <v>2</v>
       </c>
-      <c r="V60" s="6">
+      <c r="V60" s="5">
         <v>3</v>
       </c>
       <c r="W60">
         <v>8</v>
       </c>
-      <c r="X60" s="8" t="s">
+      <c r="X60" s="6" t="s">
         <v>494</v>
       </c>
       <c r="Y60">
@@ -18216,7 +18219,7 @@
       <c r="AH60" t="s">
         <v>70</v>
       </c>
-      <c r="AI60" s="2">
+      <c r="AI60" s="1">
         <v>39916</v>
       </c>
       <c r="AJ60">
@@ -18383,13 +18386,13 @@
       <c r="J61">
         <v>1</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>8</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="6" t="s">
         <v>498</v>
       </c>
       <c r="N61" t="s">
@@ -18416,13 +18419,13 @@
       <c r="U61">
         <v>1</v>
       </c>
-      <c r="V61" s="6">
+      <c r="V61" s="5">
         <v>8</v>
       </c>
       <c r="W61">
         <v>2</v>
       </c>
-      <c r="X61" s="8" t="s">
+      <c r="X61" s="6" t="s">
         <v>499</v>
       </c>
       <c r="Y61">
@@ -18460,7 +18463,7 @@
       <c r="AH61" t="s">
         <v>500</v>
       </c>
-      <c r="AI61" s="2">
+      <c r="AI61" s="1">
         <v>40223</v>
       </c>
       <c r="AJ61">
@@ -18627,13 +18630,13 @@
       <c r="J62">
         <v>1</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>8</v>
       </c>
       <c r="L62">
         <v>2</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="6" t="s">
         <v>504</v>
       </c>
       <c r="N62" t="s">
@@ -18660,13 +18663,13 @@
       <c r="U62">
         <v>1</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V62" s="5">
         <v>7</v>
       </c>
       <c r="W62">
         <v>2</v>
       </c>
-      <c r="X62" s="8" t="s">
+      <c r="X62" s="6" t="s">
         <v>505</v>
       </c>
       <c r="Y62">
@@ -18704,7 +18707,7 @@
       <c r="AH62" t="s">
         <v>70</v>
       </c>
-      <c r="AI62" s="5">
+      <c r="AI62" s="4">
         <v>40470</v>
       </c>
       <c r="AJ62">
@@ -18871,13 +18874,13 @@
       <c r="J63">
         <v>1</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>3</v>
       </c>
       <c r="L63">
         <v>9</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="6" t="s">
         <v>515</v>
       </c>
       <c r="N63" t="s">
@@ -18904,13 +18907,13 @@
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="V63" s="6">
+      <c r="V63" s="5">
         <v>1</v>
       </c>
       <c r="W63">
         <v>9</v>
       </c>
-      <c r="X63" s="8" t="s">
+      <c r="X63" s="6" t="s">
         <v>516</v>
       </c>
       <c r="Y63">
@@ -18948,7 +18951,7 @@
       <c r="AH63" t="s">
         <v>517</v>
       </c>
-      <c r="AI63" s="5">
+      <c r="AI63" s="4">
         <v>40358</v>
       </c>
       <c r="AJ63">
@@ -19115,13 +19118,13 @@
       <c r="J64">
         <v>2</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>6</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="6" t="s">
         <v>522</v>
       </c>
       <c r="N64" t="s">
@@ -19148,13 +19151,13 @@
       <c r="U64">
         <v>2</v>
       </c>
-      <c r="V64" s="6">
+      <c r="V64" s="5">
         <v>3</v>
       </c>
       <c r="W64">
         <v>6</v>
       </c>
-      <c r="X64" s="8" t="s">
+      <c r="X64" s="6" t="s">
         <v>523</v>
       </c>
       <c r="Y64">
@@ -19192,7 +19195,7 @@
       <c r="AH64" t="s">
         <v>318</v>
       </c>
-      <c r="AI64" s="5">
+      <c r="AI64" s="4">
         <v>41132</v>
       </c>
       <c r="AJ64">
@@ -19359,13 +19362,13 @@
       <c r="J65">
         <v>1</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>9</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
-      <c r="M65" s="8" t="s">
+      <c r="M65" s="6" t="s">
         <v>261</v>
       </c>
       <c r="N65" t="s">
@@ -19392,13 +19395,13 @@
       <c r="U65">
         <v>1</v>
       </c>
-      <c r="V65" s="6">
+      <c r="V65" s="5">
         <v>3</v>
       </c>
       <c r="W65">
         <v>7</v>
       </c>
-      <c r="X65" s="8" t="s">
+      <c r="X65" s="6" t="s">
         <v>529</v>
       </c>
       <c r="Y65">
@@ -19436,7 +19439,7 @@
       <c r="AH65" t="s">
         <v>70</v>
       </c>
-      <c r="AI65" s="5">
+      <c r="AI65" s="4">
         <v>41184</v>
       </c>
       <c r="AJ65">
@@ -19603,46 +19606,46 @@
       <c r="J66">
         <v>3</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>2</v>
       </c>
       <c r="L66">
         <v>9</v>
       </c>
-      <c r="M66" s="8" t="s">
+      <c r="M66" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="Q66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="R66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="S66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T66" s="3" t="s">
+      <c r="T66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="U66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V66" s="11" t="s">
+      <c r="V66" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W66" s="3" t="s">
+      <c r="W66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X66" s="9" t="s">
+      <c r="X66" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y66">
@@ -19680,7 +19683,7 @@
       <c r="AH66" t="s">
         <v>70</v>
       </c>
-      <c r="AI66" s="5">
+      <c r="AI66" s="4">
         <v>41166</v>
       </c>
       <c r="AJ66">
@@ -19847,13 +19850,13 @@
       <c r="J67">
         <v>3</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>1</v>
       </c>
       <c r="L67">
         <v>9</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="M67" s="6" t="s">
         <v>543</v>
       </c>
       <c r="N67" t="s">
@@ -19880,13 +19883,13 @@
       <c r="U67">
         <v>2</v>
       </c>
-      <c r="V67" s="6">
+      <c r="V67" s="5">
         <v>7</v>
       </c>
       <c r="W67">
         <v>2</v>
       </c>
-      <c r="X67" s="8" t="s">
+      <c r="X67" s="6" t="s">
         <v>544</v>
       </c>
       <c r="Y67">
@@ -19924,7 +19927,7 @@
       <c r="AH67" t="s">
         <v>70</v>
       </c>
-      <c r="AI67" s="5">
+      <c r="AI67" s="4">
         <v>41620</v>
       </c>
       <c r="AJ67">
@@ -20091,13 +20094,13 @@
       <c r="J68">
         <v>3</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>6</v>
       </c>
       <c r="L68">
         <v>2</v>
       </c>
-      <c r="M68" s="8" t="s">
+      <c r="M68" s="6" t="s">
         <v>550</v>
       </c>
       <c r="N68" t="s">
@@ -20124,13 +20127,13 @@
       <c r="U68">
         <v>3</v>
       </c>
-      <c r="V68" s="6">
+      <c r="V68" s="5">
         <v>5</v>
       </c>
       <c r="W68">
         <v>5</v>
       </c>
-      <c r="X68" s="8" t="s">
+      <c r="X68" s="6" t="s">
         <v>551</v>
       </c>
       <c r="Y68">
@@ -20168,7 +20171,7 @@
       <c r="AH68" t="s">
         <v>70</v>
       </c>
-      <c r="AI68" s="5">
+      <c r="AI68" s="4">
         <v>39102</v>
       </c>
       <c r="AJ68">
@@ -20335,13 +20338,13 @@
       <c r="J69" t="s">
         <v>72</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>3</v>
       </c>
       <c r="L69">
         <v>2</v>
       </c>
-      <c r="M69" s="8" t="s">
+      <c r="M69" s="6" t="s">
         <v>562</v>
       </c>
       <c r="N69" t="s">
@@ -20368,13 +20371,13 @@
       <c r="U69">
         <v>1</v>
       </c>
-      <c r="V69" s="6">
+      <c r="V69" s="5">
         <v>9</v>
       </c>
       <c r="W69">
         <v>2</v>
       </c>
-      <c r="X69" s="8" t="s">
+      <c r="X69" s="6" t="s">
         <v>563</v>
       </c>
       <c r="Y69">
@@ -20412,7 +20415,7 @@
       <c r="AH69" t="s">
         <v>70</v>
       </c>
-      <c r="AI69" s="5">
+      <c r="AI69" s="4">
         <v>36944</v>
       </c>
       <c r="AJ69">
@@ -20579,13 +20582,13 @@
       <c r="J70">
         <v>5</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>7</v>
       </c>
       <c r="L70">
         <v>5</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="M70" s="6" t="s">
         <v>551</v>
       </c>
       <c r="N70" t="s">
@@ -20612,13 +20615,13 @@
       <c r="U70">
         <v>5</v>
       </c>
-      <c r="V70" s="6">
+      <c r="V70" s="5">
         <v>3</v>
       </c>
       <c r="W70">
         <v>3</v>
       </c>
-      <c r="X70" s="8" t="s">
+      <c r="X70" s="6" t="s">
         <v>566</v>
       </c>
       <c r="Y70">
@@ -20656,7 +20659,7 @@
       <c r="AH70" t="s">
         <v>70</v>
       </c>
-      <c r="AI70" s="5">
+      <c r="AI70" s="4">
         <v>37787</v>
       </c>
       <c r="AJ70">
@@ -20823,13 +20826,13 @@
       <c r="J71">
         <v>4</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>2</v>
       </c>
       <c r="L71">
         <v>9</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="M71" s="6" t="s">
         <v>569</v>
       </c>
       <c r="N71" t="s">
@@ -20856,13 +20859,13 @@
       <c r="U71">
         <v>5</v>
       </c>
-      <c r="V71" s="6">
+      <c r="V71" s="5">
         <v>3</v>
       </c>
       <c r="W71">
         <v>9</v>
       </c>
-      <c r="X71" s="8" t="s">
+      <c r="X71" s="6" t="s">
         <v>570</v>
       </c>
       <c r="Y71">
@@ -20900,7 +20903,7 @@
       <c r="AH71" t="s">
         <v>571</v>
       </c>
-      <c r="AI71" s="5">
+      <c r="AI71" s="4">
         <v>36947</v>
       </c>
       <c r="AJ71">
@@ -21067,13 +21070,13 @@
       <c r="J72">
         <v>4</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>3</v>
       </c>
       <c r="L72">
         <v>8</v>
       </c>
-      <c r="M72" s="8" t="s">
+      <c r="M72" s="6" t="s">
         <v>576</v>
       </c>
       <c r="N72" t="s">
@@ -21100,13 +21103,13 @@
       <c r="U72">
         <v>3</v>
       </c>
-      <c r="V72" s="6">
+      <c r="V72" s="5">
         <v>1</v>
       </c>
       <c r="W72">
         <v>9</v>
       </c>
-      <c r="X72" s="8" t="s">
+      <c r="X72" s="6" t="s">
         <v>577</v>
       </c>
       <c r="Y72">
@@ -21144,7 +21147,7 @@
       <c r="AH72" t="s">
         <v>578</v>
       </c>
-      <c r="AI72" s="5">
+      <c r="AI72" s="4">
         <v>40496</v>
       </c>
       <c r="AJ72">
@@ -21311,13 +21314,13 @@
       <c r="J73">
         <v>4</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>3</v>
       </c>
       <c r="L73">
         <v>8</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="M73" s="6" t="s">
         <v>580</v>
       </c>
       <c r="N73" t="s">
@@ -21344,13 +21347,13 @@
       <c r="U73">
         <v>3</v>
       </c>
-      <c r="V73" s="6">
+      <c r="V73" s="5">
         <v>1</v>
       </c>
       <c r="W73">
         <v>9</v>
       </c>
-      <c r="X73" s="8" t="s">
+      <c r="X73" s="6" t="s">
         <v>577</v>
       </c>
       <c r="Y73">
@@ -21388,7 +21391,7 @@
       <c r="AH73" t="s">
         <v>578</v>
       </c>
-      <c r="AI73" s="5">
+      <c r="AI73" s="4">
         <v>40018</v>
       </c>
       <c r="AJ73">
@@ -21555,13 +21558,13 @@
       <c r="J74">
         <v>4</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>2</v>
       </c>
       <c r="L74">
         <v>9</v>
       </c>
-      <c r="M74" s="8" t="s">
+      <c r="M74" s="6" t="s">
         <v>584</v>
       </c>
       <c r="N74" t="s">
@@ -21588,13 +21591,13 @@
       <c r="U74">
         <v>1</v>
       </c>
-      <c r="V74" s="6">
+      <c r="V74" s="5">
         <v>3</v>
       </c>
       <c r="W74">
         <v>5</v>
       </c>
-      <c r="X74" s="8" t="s">
+      <c r="X74" s="6" t="s">
         <v>585</v>
       </c>
       <c r="Y74">
@@ -21632,7 +21635,7 @@
       <c r="AH74" t="s">
         <v>586</v>
       </c>
-      <c r="AI74" s="5">
+      <c r="AI74" s="4">
         <v>39730</v>
       </c>
       <c r="AJ74">
@@ -21799,13 +21802,13 @@
       <c r="J75">
         <v>2</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>4</v>
       </c>
       <c r="L75">
         <v>7</v>
       </c>
-      <c r="M75" s="8" t="s">
+      <c r="M75" s="6" t="s">
         <v>590</v>
       </c>
       <c r="N75" t="s">
@@ -21832,13 +21835,13 @@
       <c r="U75">
         <v>3</v>
       </c>
-      <c r="V75" s="6">
+      <c r="V75" s="5">
         <v>3</v>
       </c>
       <c r="W75">
         <v>5</v>
       </c>
-      <c r="X75" s="8" t="s">
+      <c r="X75" s="6" t="s">
         <v>591</v>
       </c>
       <c r="Y75">
@@ -21876,7 +21879,7 @@
       <c r="AH75" t="s">
         <v>197</v>
       </c>
-      <c r="AI75" s="5">
+      <c r="AI75" s="4">
         <v>40114</v>
       </c>
       <c r="AJ75">
@@ -22043,13 +22046,13 @@
       <c r="J76">
         <v>4</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>5</v>
       </c>
       <c r="L76">
         <v>4</v>
       </c>
-      <c r="M76" s="8" t="s">
+      <c r="M76" s="6" t="s">
         <v>597</v>
       </c>
       <c r="N76" t="s">
@@ -22076,13 +22079,13 @@
       <c r="U76">
         <v>3</v>
       </c>
-      <c r="V76" s="6">
+      <c r="V76" s="5">
         <v>6</v>
       </c>
       <c r="W76">
         <v>5</v>
       </c>
-      <c r="X76" s="8" t="s">
+      <c r="X76" s="6" t="s">
         <v>598</v>
       </c>
       <c r="Y76">
@@ -22120,7 +22123,7 @@
       <c r="AH76" t="s">
         <v>70</v>
       </c>
-      <c r="AI76" s="5">
+      <c r="AI76" s="4">
         <v>40207</v>
       </c>
       <c r="AJ76">
@@ -22287,13 +22290,13 @@
       <c r="J77">
         <v>4</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>3</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
-      <c r="M77" s="8" t="s">
+      <c r="M77" s="6" t="s">
         <v>214</v>
       </c>
       <c r="N77" t="s">
@@ -22320,13 +22323,13 @@
       <c r="U77">
         <v>3</v>
       </c>
-      <c r="V77" s="6">
+      <c r="V77" s="5">
         <v>4</v>
       </c>
       <c r="W77">
         <v>7</v>
       </c>
-      <c r="X77" s="8" t="s">
+      <c r="X77" s="6" t="s">
         <v>602</v>
       </c>
       <c r="Y77">
@@ -22364,7 +22367,7 @@
       <c r="AH77" t="s">
         <v>318</v>
       </c>
-      <c r="AI77" s="5">
+      <c r="AI77" s="4">
         <v>39945</v>
       </c>
       <c r="AJ77">
@@ -22531,13 +22534,13 @@
       <c r="J78">
         <v>2</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>6</v>
       </c>
       <c r="L78">
         <v>3</v>
       </c>
-      <c r="M78" s="8" t="s">
+      <c r="M78" s="6" t="s">
         <v>606</v>
       </c>
       <c r="N78" t="s">
@@ -22564,13 +22567,13 @@
       <c r="U78">
         <v>1</v>
       </c>
-      <c r="V78" s="6">
+      <c r="V78" s="5">
         <v>3</v>
       </c>
       <c r="W78">
         <v>7</v>
       </c>
-      <c r="X78" s="8" t="s">
+      <c r="X78" s="6" t="s">
         <v>607</v>
       </c>
       <c r="Y78">
@@ -22608,7 +22611,7 @@
       <c r="AH78" t="s">
         <v>70</v>
       </c>
-      <c r="AI78" s="5">
+      <c r="AI78" s="4">
         <v>38984</v>
       </c>
       <c r="AJ78">
@@ -22775,13 +22778,13 @@
       <c r="J79">
         <v>2</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>6</v>
       </c>
       <c r="L79">
         <v>2</v>
       </c>
-      <c r="M79" s="8" t="s">
+      <c r="M79" s="6" t="s">
         <v>142</v>
       </c>
       <c r="N79" t="s">
@@ -22808,13 +22811,13 @@
       <c r="U79">
         <v>4</v>
       </c>
-      <c r="V79" s="6">
+      <c r="V79" s="5">
         <v>3</v>
       </c>
       <c r="W79">
         <v>5</v>
       </c>
-      <c r="X79" s="8" t="s">
+      <c r="X79" s="6" t="s">
         <v>618</v>
       </c>
       <c r="Y79">
@@ -22852,7 +22855,7 @@
       <c r="AH79" t="s">
         <v>619</v>
       </c>
-      <c r="AI79" s="5">
+      <c r="AI79" s="4">
         <v>38462</v>
       </c>
       <c r="AJ79">
@@ -23019,13 +23022,13 @@
       <c r="J80">
         <v>4</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>7</v>
       </c>
       <c r="L80">
         <v>2</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M80" s="6" t="s">
         <v>622</v>
       </c>
       <c r="N80" t="s">
@@ -23052,13 +23055,13 @@
       <c r="U80">
         <v>3</v>
       </c>
-      <c r="V80" s="6">
+      <c r="V80" s="5">
         <v>8</v>
       </c>
       <c r="W80">
         <v>3</v>
       </c>
-      <c r="X80" s="8" t="s">
+      <c r="X80" s="6" t="s">
         <v>623</v>
       </c>
       <c r="Y80">
@@ -23096,7 +23099,7 @@
       <c r="AH80" t="s">
         <v>70</v>
       </c>
-      <c r="AI80" s="5">
+      <c r="AI80" s="4">
         <v>38832</v>
       </c>
       <c r="AJ80">
@@ -23263,13 +23266,13 @@
       <c r="J81">
         <v>4</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>5</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
-      <c r="M81" s="8" t="s">
+      <c r="M81" s="6" t="s">
         <v>630</v>
       </c>
       <c r="N81" t="s">
@@ -23296,13 +23299,13 @@
       <c r="U81">
         <v>4</v>
       </c>
-      <c r="V81" s="6">
+      <c r="V81" s="5">
         <v>5</v>
       </c>
       <c r="W81">
         <v>5</v>
       </c>
-      <c r="X81" s="8" t="s">
+      <c r="X81" s="6" t="s">
         <v>231</v>
       </c>
       <c r="Y81">
@@ -23340,7 +23343,7 @@
       <c r="AH81" t="s">
         <v>70</v>
       </c>
-      <c r="AI81" s="5">
+      <c r="AI81" s="4">
         <v>39165</v>
       </c>
       <c r="AJ81">
@@ -23507,13 +23510,13 @@
       <c r="J82">
         <v>5</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>8</v>
       </c>
       <c r="L82">
         <v>2</v>
       </c>
-      <c r="M82" s="8" t="s">
+      <c r="M82" s="6" t="s">
         <v>504</v>
       </c>
       <c r="N82" t="s">
@@ -23540,13 +23543,13 @@
       <c r="U82">
         <v>3</v>
       </c>
-      <c r="V82" s="6">
+      <c r="V82" s="5">
         <v>9</v>
       </c>
       <c r="W82">
         <v>2</v>
       </c>
-      <c r="X82" s="8" t="s">
+      <c r="X82" s="6" t="s">
         <v>636</v>
       </c>
       <c r="Y82">
@@ -23584,7 +23587,7 @@
       <c r="AH82" t="s">
         <v>70</v>
       </c>
-      <c r="AI82" s="5">
+      <c r="AI82" s="4">
         <v>39113</v>
       </c>
       <c r="AJ82">
@@ -23751,13 +23754,13 @@
       <c r="J83">
         <v>1</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>1</v>
       </c>
       <c r="L83">
         <v>9</v>
       </c>
-      <c r="M83" s="8" t="s">
+      <c r="M83" s="6" t="s">
         <v>543</v>
       </c>
       <c r="N83" t="s">
@@ -23784,13 +23787,13 @@
       <c r="U83">
         <v>2</v>
       </c>
-      <c r="V83" s="6">
+      <c r="V83" s="5">
         <v>3</v>
       </c>
       <c r="W83">
         <v>5</v>
       </c>
-      <c r="X83" s="8" t="s">
+      <c r="X83" s="6" t="s">
         <v>646</v>
       </c>
       <c r="Y83">
@@ -23828,7 +23831,7 @@
       <c r="AH83" t="s">
         <v>647</v>
       </c>
-      <c r="AI83" s="5">
+      <c r="AI83" s="4">
         <v>38876</v>
       </c>
       <c r="AJ83">
@@ -23995,13 +23998,13 @@
       <c r="J84">
         <v>1</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>3</v>
       </c>
       <c r="L84">
         <v>9</v>
       </c>
-      <c r="M84" s="8" t="s">
+      <c r="M84" s="6" t="s">
         <v>652</v>
       </c>
       <c r="N84" t="s">
@@ -24028,13 +24031,13 @@
       <c r="U84">
         <v>1</v>
       </c>
-      <c r="V84" s="6">
+      <c r="V84" s="5">
         <v>1</v>
       </c>
       <c r="W84">
         <v>9</v>
       </c>
-      <c r="X84" s="8" t="s">
+      <c r="X84" s="6" t="s">
         <v>196</v>
       </c>
       <c r="Y84">
@@ -24072,7 +24075,7 @@
       <c r="AH84" t="s">
         <v>197</v>
       </c>
-      <c r="AI84" s="5">
+      <c r="AI84" s="4">
         <v>39044</v>
       </c>
       <c r="AJ84">
@@ -24236,13 +24239,13 @@
       <c r="J85" t="s">
         <v>143</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="5" t="s">
         <v>143</v>
       </c>
       <c r="L85" t="s">
         <v>143</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="6" t="s">
         <v>656</v>
       </c>
       <c r="N85" t="s">
@@ -24269,13 +24272,13 @@
       <c r="U85">
         <v>3</v>
       </c>
-      <c r="V85" s="6">
+      <c r="V85" s="5">
         <v>4</v>
       </c>
       <c r="W85">
         <v>5</v>
       </c>
-      <c r="X85" s="8" t="s">
+      <c r="X85" s="6" t="s">
         <v>214</v>
       </c>
       <c r="Y85" t="s">
@@ -24295,7 +24298,7 @@
       <c r="AC85">
         <v>3</v>
       </c>
-      <c r="AD85" s="8">
+      <c r="AD85" s="6">
         <f>SUM(O85*3,V85*5)/2</f>
         <v>14.5</v>
       </c>
@@ -24313,7 +24316,7 @@
       <c r="AH85" t="s">
         <v>70</v>
       </c>
-      <c r="AI85" s="5">
+      <c r="AI85" s="4">
         <v>38551</v>
       </c>
       <c r="AJ85">
@@ -24477,13 +24480,13 @@
       <c r="J86">
         <v>3</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>3</v>
       </c>
       <c r="L86">
         <v>5</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="6" t="s">
         <v>209</v>
       </c>
       <c r="N86" t="s">
@@ -24510,13 +24513,13 @@
       <c r="U86">
         <v>1</v>
       </c>
-      <c r="V86" s="6">
+      <c r="V86" s="5">
         <v>3</v>
       </c>
       <c r="W86">
         <v>5</v>
       </c>
-      <c r="X86" s="8" t="s">
+      <c r="X86" s="6" t="s">
         <v>660</v>
       </c>
       <c r="Y86">
@@ -24554,7 +24557,7 @@
       <c r="AH86" t="s">
         <v>661</v>
       </c>
-      <c r="AI86" s="5">
+      <c r="AI86" s="4">
         <v>38980</v>
       </c>
       <c r="AJ86">
@@ -24721,13 +24724,13 @@
       <c r="J87">
         <v>1</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>4</v>
       </c>
       <c r="L87">
         <v>5</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="6" t="s">
         <v>664</v>
       </c>
       <c r="N87" t="s">
@@ -24754,13 +24757,13 @@
       <c r="U87">
         <v>1</v>
       </c>
-      <c r="V87" s="6">
+      <c r="V87" s="5">
         <v>6</v>
       </c>
       <c r="W87">
         <v>2</v>
       </c>
-      <c r="X87" s="8" t="s">
+      <c r="X87" s="6" t="s">
         <v>665</v>
       </c>
       <c r="Y87">
@@ -24798,7 +24801,7 @@
       <c r="AH87" t="s">
         <v>666</v>
       </c>
-      <c r="AI87" s="5">
+      <c r="AI87" s="4">
         <v>38439</v>
       </c>
       <c r="AJ87">
@@ -24965,13 +24968,13 @@
       <c r="J88">
         <v>4</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>7</v>
       </c>
       <c r="L88">
         <v>5</v>
       </c>
-      <c r="M88" s="8" t="s">
+      <c r="M88" s="6" t="s">
         <v>671</v>
       </c>
       <c r="N88" t="s">
@@ -24998,13 +25001,13 @@
       <c r="U88">
         <v>3</v>
       </c>
-      <c r="V88" s="6">
+      <c r="V88" s="5">
         <v>5</v>
       </c>
       <c r="W88">
         <v>5</v>
       </c>
-      <c r="X88" s="8" t="s">
+      <c r="X88" s="6" t="s">
         <v>231</v>
       </c>
       <c r="Y88">
@@ -25042,7 +25045,7 @@
       <c r="AH88" t="s">
         <v>70</v>
       </c>
-      <c r="AI88" s="5">
+      <c r="AI88" s="4">
         <v>39170</v>
       </c>
       <c r="AJ88">
@@ -25209,13 +25212,13 @@
       <c r="J89">
         <v>4</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>1</v>
       </c>
       <c r="L89">
         <v>9</v>
       </c>
-      <c r="M89" s="8" t="s">
+      <c r="M89" s="6" t="s">
         <v>543</v>
       </c>
       <c r="N89" t="s">
@@ -25242,13 +25245,13 @@
       <c r="U89">
         <v>4</v>
       </c>
-      <c r="V89" s="6">
+      <c r="V89" s="5">
         <v>3</v>
       </c>
       <c r="W89">
         <v>5</v>
       </c>
-      <c r="X89" s="8" t="s">
+      <c r="X89" s="6" t="s">
         <v>678</v>
       </c>
       <c r="Y89">
@@ -25286,7 +25289,7 @@
       <c r="AH89" t="s">
         <v>679</v>
       </c>
-      <c r="AI89" s="5">
+      <c r="AI89" s="4">
         <v>39195</v>
       </c>
       <c r="AJ89">
@@ -25453,13 +25456,13 @@
       <c r="J90">
         <v>3</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>3</v>
       </c>
       <c r="L90">
         <v>5</v>
       </c>
-      <c r="M90" s="8" t="s">
+      <c r="M90" s="6" t="s">
         <v>685</v>
       </c>
       <c r="N90" t="s">
@@ -25486,13 +25489,13 @@
       <c r="U90">
         <v>2</v>
       </c>
-      <c r="V90" s="6">
+      <c r="V90" s="5">
         <v>6</v>
       </c>
       <c r="W90">
         <v>7</v>
       </c>
-      <c r="X90" s="8" t="s">
+      <c r="X90" s="6" t="s">
         <v>85</v>
       </c>
       <c r="Y90">
@@ -25530,7 +25533,7 @@
       <c r="AH90" t="s">
         <v>70</v>
       </c>
-      <c r="AI90" s="5">
+      <c r="AI90" s="4">
         <v>38412</v>
       </c>
       <c r="AJ90">
@@ -25697,46 +25700,46 @@
       <c r="J91">
         <v>2</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>8</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V91" s="11" t="s">
+      <c r="V91" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X91" s="9" t="s">
+      <c r="X91" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y91" t="s">
@@ -25774,7 +25777,7 @@
       <c r="AH91" t="s">
         <v>318</v>
       </c>
-      <c r="AI91" s="5">
+      <c r="AI91" s="4">
         <v>40997</v>
       </c>
       <c r="AJ91">
@@ -25941,13 +25944,13 @@
       <c r="J92">
         <v>3</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="5">
         <v>7</v>
       </c>
       <c r="L92">
         <v>2</v>
       </c>
-      <c r="M92" s="8" t="s">
+      <c r="M92" s="6" t="s">
         <v>693</v>
       </c>
       <c r="N92" t="s">
@@ -25974,13 +25977,13 @@
       <c r="U92">
         <v>3</v>
       </c>
-      <c r="V92" s="6">
+      <c r="V92" s="5">
         <v>9</v>
       </c>
       <c r="W92">
         <v>2</v>
       </c>
-      <c r="X92" s="8" t="s">
+      <c r="X92" s="6" t="s">
         <v>636</v>
       </c>
       <c r="Y92">
@@ -26018,13 +26021,13 @@
       <c r="AH92" t="s">
         <v>70</v>
       </c>
-      <c r="AI92" s="5">
+      <c r="AI92" s="4">
         <v>40919</v>
       </c>
-      <c r="AJ92" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK92" s="6">
+      <c r="AJ92" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="5">
         <v>2</v>
       </c>
       <c r="AL92">
@@ -26185,46 +26188,46 @@
       <c r="J93">
         <v>2</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <v>8</v>
       </c>
       <c r="L93">
         <v>2</v>
       </c>
-      <c r="M93" s="8" t="s">
+      <c r="M93" s="6" t="s">
         <v>698</v>
       </c>
       <c r="N93" t="s">
         <v>143</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="P93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q93" s="3" t="s">
+      <c r="Q93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R93" s="3" t="s">
+      <c r="R93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S93" s="3" t="s">
+      <c r="S93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T93" s="3" t="s">
+      <c r="T93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U93" s="3" t="s">
+      <c r="U93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V93" s="11" t="s">
+      <c r="V93" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W93" s="3" t="s">
+      <c r="W93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X93" s="9" t="s">
+      <c r="X93" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y93">
@@ -26262,7 +26265,7 @@
       <c r="AH93" t="s">
         <v>70</v>
       </c>
-      <c r="AI93" s="5">
+      <c r="AI93" s="4">
         <v>40944</v>
       </c>
       <c r="AJ93">
@@ -26429,13 +26432,13 @@
       <c r="J94">
         <v>2</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="5">
         <v>9</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
-      <c r="M94" s="8" t="s">
+      <c r="M94" s="6" t="s">
         <v>703</v>
       </c>
       <c r="N94" t="s">
@@ -26462,13 +26465,13 @@
       <c r="U94">
         <v>2</v>
       </c>
-      <c r="V94" s="6">
+      <c r="V94" s="5">
         <v>4</v>
       </c>
       <c r="W94">
         <v>2</v>
       </c>
-      <c r="X94" s="8" t="s">
+      <c r="X94" s="6" t="s">
         <v>704</v>
       </c>
       <c r="Y94">
@@ -26506,7 +26509,7 @@
       <c r="AH94" t="s">
         <v>705</v>
       </c>
-      <c r="AI94" s="5">
+      <c r="AI94" s="4">
         <v>40988</v>
       </c>
       <c r="AJ94">
@@ -26673,46 +26676,46 @@
       <c r="J95">
         <v>1</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <v>3</v>
       </c>
       <c r="L95">
         <v>5</v>
       </c>
-      <c r="M95" s="8" t="s">
+      <c r="M95" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="N95" s="3" t="s">
+      <c r="N95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="O95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P95" s="3" t="s">
+      <c r="P95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q95" s="3" t="s">
+      <c r="Q95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R95" s="3" t="s">
+      <c r="R95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S95" s="3" t="s">
+      <c r="S95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T95" s="3" t="s">
+      <c r="T95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U95" s="3" t="s">
+      <c r="U95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V95" s="6" t="s">
+      <c r="V95" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W95" t="s">
         <v>143</v>
       </c>
-      <c r="X95" s="9" t="s">
+      <c r="X95" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y95">
@@ -26750,7 +26753,7 @@
       <c r="AH95" t="s">
         <v>70</v>
       </c>
-      <c r="AI95" s="5">
+      <c r="AI95" s="4">
         <v>41386</v>
       </c>
       <c r="AJ95">
@@ -26917,13 +26920,13 @@
       <c r="J96">
         <v>1</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="5">
         <v>7</v>
       </c>
       <c r="L96">
         <v>2</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="M96" s="6" t="s">
         <v>712</v>
       </c>
       <c r="N96" t="s">
@@ -26950,13 +26953,13 @@
       <c r="U96">
         <v>1</v>
       </c>
-      <c r="V96" s="6">
+      <c r="V96" s="5">
         <v>4</v>
       </c>
       <c r="W96">
         <v>5</v>
       </c>
-      <c r="X96" s="8" t="s">
+      <c r="X96" s="6" t="s">
         <v>713</v>
       </c>
       <c r="Y96">
@@ -26994,7 +26997,7 @@
       <c r="AH96" t="s">
         <v>714</v>
       </c>
-      <c r="AI96" s="5">
+      <c r="AI96" s="4">
         <v>40823</v>
       </c>
       <c r="AJ96">
@@ -27161,46 +27164,46 @@
       <c r="J97">
         <v>4</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <v>1</v>
       </c>
       <c r="L97">
         <v>9</v>
       </c>
-      <c r="M97" s="8" t="s">
+      <c r="M97" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="N97" s="3" t="s">
+      <c r="N97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O97" s="3" t="s">
+      <c r="O97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P97" s="3" t="s">
+      <c r="P97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="Q97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R97" s="3" t="s">
+      <c r="R97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S97" s="3" t="s">
+      <c r="S97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T97" s="3" t="s">
+      <c r="T97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U97" s="3" t="s">
+      <c r="U97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V97" s="6" t="s">
+      <c r="V97" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W97" t="s">
         <v>143</v>
       </c>
-      <c r="X97" s="9" t="s">
+      <c r="X97" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y97">
@@ -27238,7 +27241,7 @@
       <c r="AH97" t="s">
         <v>719</v>
       </c>
-      <c r="AI97" s="5">
+      <c r="AI97" s="4">
         <v>41434</v>
       </c>
       <c r="AJ97">
@@ -27405,46 +27408,46 @@
       <c r="J98">
         <v>1</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <v>1</v>
       </c>
       <c r="L98">
         <v>9</v>
       </c>
-      <c r="M98" s="8" t="s">
+      <c r="M98" s="6" t="s">
         <v>728</v>
       </c>
       <c r="N98" t="s">
         <v>143</v>
       </c>
-      <c r="O98" s="3" t="s">
+      <c r="O98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="P98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="Q98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R98" s="3" t="s">
+      <c r="R98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S98" s="3" t="s">
+      <c r="S98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T98" s="3" t="s">
+      <c r="T98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U98" s="3" t="s">
+      <c r="U98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W98" s="3" t="s">
+      <c r="W98" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X98" s="8" t="s">
+      <c r="X98" s="6" t="s">
         <v>729</v>
       </c>
       <c r="Y98">
@@ -27482,13 +27485,13 @@
       <c r="AH98" t="s">
         <v>730</v>
       </c>
-      <c r="AI98" s="5">
+      <c r="AI98" s="4">
         <v>38714</v>
       </c>
       <c r="AJ98">
         <v>0</v>
       </c>
-      <c r="AK98" s="6" t="s">
+      <c r="AK98" s="5" t="s">
         <v>731</v>
       </c>
       <c r="AL98">
@@ -27649,13 +27652,13 @@
       <c r="J99">
         <v>3</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <v>3</v>
       </c>
       <c r="L99">
         <v>5</v>
       </c>
-      <c r="M99" s="8" t="s">
+      <c r="M99" s="6" t="s">
         <v>736</v>
       </c>
       <c r="N99" t="s">
@@ -27682,13 +27685,13 @@
       <c r="U99">
         <v>2</v>
       </c>
-      <c r="V99" s="6">
+      <c r="V99" s="5">
         <v>7</v>
       </c>
       <c r="W99">
         <v>1</v>
       </c>
-      <c r="X99" s="8" t="s">
+      <c r="X99" s="6" t="s">
         <v>737</v>
       </c>
       <c r="Y99">
@@ -27726,7 +27729,7 @@
       <c r="AH99" t="s">
         <v>70</v>
       </c>
-      <c r="AI99" s="5">
+      <c r="AI99" s="4">
         <v>38567</v>
       </c>
       <c r="AJ99">
@@ -27893,13 +27896,13 @@
       <c r="J100">
         <v>3</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="5">
         <v>6</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
-      <c r="M100" s="8" t="s">
+      <c r="M100" s="6" t="s">
         <v>742</v>
       </c>
       <c r="N100" t="s">
@@ -27914,25 +27917,25 @@
       <c r="Q100" t="s">
         <v>65</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="R100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S100" s="3" t="s">
+      <c r="S100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="T100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="U100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V100" s="11">
+      <c r="V100" s="8">
         <v>7</v>
       </c>
-      <c r="W100" s="3">
-        <v>2</v>
-      </c>
-      <c r="X100" s="8" t="s">
+      <c r="W100" s="2">
+        <v>2</v>
+      </c>
+      <c r="X100" s="6" t="s">
         <v>142</v>
       </c>
       <c r="Y100">
@@ -27970,7 +27973,7 @@
       <c r="AH100" t="s">
         <v>70</v>
       </c>
-      <c r="AI100" s="5">
+      <c r="AI100" s="4">
         <v>39212</v>
       </c>
       <c r="AJ100">
@@ -28137,13 +28140,13 @@
       <c r="J101">
         <v>2</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="5">
         <v>3</v>
       </c>
       <c r="L101">
         <v>8</v>
       </c>
-      <c r="M101" s="8" t="s">
+      <c r="M101" s="6" t="s">
         <v>748</v>
       </c>
       <c r="N101" t="s">
@@ -28158,25 +28161,25 @@
       <c r="Q101" t="s">
         <v>65</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="R101" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="S101" s="2" t="s">
         <v>143</v>
       </c>
       <c r="T101">
         <v>1</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="U101" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V101" s="11">
-        <v>4</v>
-      </c>
-      <c r="W101" s="3">
-        <v>5</v>
-      </c>
-      <c r="X101" s="8" t="s">
+      <c r="V101" s="8">
+        <v>4</v>
+      </c>
+      <c r="W101" s="2">
+        <v>5</v>
+      </c>
+      <c r="X101" s="6" t="s">
         <v>396</v>
       </c>
       <c r="Y101">
@@ -28214,7 +28217,7 @@
       <c r="AH101" t="s">
         <v>70</v>
       </c>
-      <c r="AI101" s="5">
+      <c r="AI101" s="4">
         <v>39788</v>
       </c>
       <c r="AJ101">
@@ -28381,13 +28384,13 @@
       <c r="J102">
         <v>2</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="5">
         <v>3</v>
       </c>
       <c r="L102">
         <v>5</v>
       </c>
-      <c r="M102" s="8" t="s">
+      <c r="M102" s="6" t="s">
         <v>753</v>
       </c>
       <c r="N102" t="s">
@@ -28414,13 +28417,13 @@
       <c r="U102">
         <v>2</v>
       </c>
-      <c r="V102" s="6">
+      <c r="V102" s="5">
         <v>3</v>
       </c>
       <c r="W102">
         <v>5</v>
       </c>
-      <c r="X102" s="8" t="s">
+      <c r="X102" s="6" t="s">
         <v>754</v>
       </c>
       <c r="Y102">
@@ -28458,7 +28461,7 @@
       <c r="AH102" t="s">
         <v>70</v>
       </c>
-      <c r="AI102" s="5">
+      <c r="AI102" s="4">
         <v>36982</v>
       </c>
       <c r="AJ102">
@@ -28625,46 +28628,46 @@
       <c r="J103">
         <v>2</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="5">
         <v>1</v>
       </c>
       <c r="L103">
         <v>9</v>
       </c>
-      <c r="M103" s="8" t="s">
+      <c r="M103" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="N103" s="3" t="s">
+      <c r="N103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O103" s="3" t="s">
+      <c r="O103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P103" s="3" t="s">
+      <c r="P103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q103" s="3" t="s">
+      <c r="Q103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R103" s="3" t="s">
+      <c r="R103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S103" s="3" t="s">
+      <c r="S103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T103" s="3" t="s">
+      <c r="T103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U103" s="3" t="s">
+      <c r="U103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V103" s="11" t="s">
+      <c r="V103" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W103" s="3" t="s">
+      <c r="W103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X103" s="9" t="s">
+      <c r="X103" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y103">
@@ -28702,7 +28705,7 @@
       <c r="AH103" t="s">
         <v>70</v>
       </c>
-      <c r="AI103" s="5">
+      <c r="AI103" s="4">
         <v>37723</v>
       </c>
       <c r="AJ103">
@@ -28869,13 +28872,13 @@
       <c r="J104">
         <v>2</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K104" s="5">
         <v>8</v>
       </c>
       <c r="L104">
         <v>2</v>
       </c>
-      <c r="M104" s="8" t="s">
+      <c r="M104" s="6" t="s">
         <v>777</v>
       </c>
       <c r="N104" t="s">
@@ -28902,13 +28905,13 @@
       <c r="U104">
         <v>1</v>
       </c>
-      <c r="V104" s="6">
+      <c r="V104" s="5">
         <v>6</v>
       </c>
       <c r="W104">
         <v>4</v>
       </c>
-      <c r="X104" s="8" t="s">
+      <c r="X104" s="6" t="s">
         <v>778</v>
       </c>
       <c r="Y104">
@@ -28946,7 +28949,7 @@
       <c r="AH104" t="s">
         <v>70</v>
       </c>
-      <c r="AI104" s="5">
+      <c r="AI104" s="4">
         <v>37510</v>
       </c>
       <c r="AJ104">
@@ -29113,13 +29116,13 @@
       <c r="J105">
         <v>3</v>
       </c>
-      <c r="K105" s="6">
+      <c r="K105" s="5">
         <v>8</v>
       </c>
       <c r="L105">
         <v>2</v>
       </c>
-      <c r="M105" s="8" t="s">
+      <c r="M105" s="6" t="s">
         <v>784</v>
       </c>
       <c r="N105" t="s">
@@ -29146,13 +29149,13 @@
       <c r="U105">
         <v>4</v>
       </c>
-      <c r="V105" s="6">
+      <c r="V105" s="5">
         <v>9</v>
       </c>
       <c r="W105">
         <v>1</v>
       </c>
-      <c r="X105" s="8" t="s">
+      <c r="X105" s="6" t="s">
         <v>785</v>
       </c>
       <c r="Y105">
@@ -29190,7 +29193,7 @@
       <c r="AH105" t="s">
         <v>70</v>
       </c>
-      <c r="AI105" s="5">
+      <c r="AI105" s="4">
         <v>38382</v>
       </c>
       <c r="AJ105">
@@ -29357,13 +29360,13 @@
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="K106" s="6">
+      <c r="K106" s="5">
         <v>7</v>
       </c>
       <c r="L106">
         <v>3</v>
       </c>
-      <c r="M106" s="8" t="s">
+      <c r="M106" s="6" t="s">
         <v>794</v>
       </c>
       <c r="N106" t="s">
@@ -29390,13 +29393,13 @@
       <c r="U106">
         <v>1</v>
       </c>
-      <c r="V106" s="6">
+      <c r="V106" s="5">
         <v>4</v>
       </c>
       <c r="W106">
         <v>7</v>
       </c>
-      <c r="X106" s="8" t="s">
+      <c r="X106" s="6" t="s">
         <v>795</v>
       </c>
       <c r="Y106">
@@ -29434,7 +29437,7 @@
       <c r="AH106" t="s">
         <v>70</v>
       </c>
-      <c r="AI106" s="5">
+      <c r="AI106" s="4">
         <v>39778</v>
       </c>
       <c r="AJ106">
@@ -29601,46 +29604,46 @@
       <c r="J107">
         <v>5</v>
       </c>
-      <c r="K107" s="6">
+      <c r="K107" s="5">
         <v>8</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="N107" s="3" t="s">
+      <c r="N107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O107" s="3" t="s">
+      <c r="O107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="3" t="s">
+      <c r="P107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q107" s="3" t="s">
+      <c r="Q107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R107" s="3" t="s">
+      <c r="R107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S107" s="3" t="s">
+      <c r="S107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T107" s="3" t="s">
+      <c r="T107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="U107" s="3" t="s">
+      <c r="U107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V107" s="11" t="s">
+      <c r="V107" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="W107" s="3" t="s">
+      <c r="W107" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X107" s="9" t="s">
+      <c r="X107" s="7" t="s">
         <v>143</v>
       </c>
       <c r="Y107">
@@ -29678,7 +29681,7 @@
       <c r="AH107" t="s">
         <v>70</v>
       </c>
-      <c r="AI107" s="5">
+      <c r="AI107" s="4">
         <v>39279</v>
       </c>
       <c r="AJ107">
@@ -29845,13 +29848,13 @@
       <c r="J108">
         <v>4</v>
       </c>
-      <c r="K108" s="6">
+      <c r="K108" s="5">
         <v>9</v>
       </c>
       <c r="L108">
         <v>2</v>
       </c>
-      <c r="M108" s="8" t="s">
+      <c r="M108" s="6" t="s">
         <v>206</v>
       </c>
       <c r="N108" t="s">
@@ -29878,13 +29881,13 @@
       <c r="U108">
         <v>3</v>
       </c>
-      <c r="V108" s="6">
+      <c r="V108" s="5">
         <v>3</v>
       </c>
       <c r="W108">
         <v>5</v>
       </c>
-      <c r="X108" s="8" t="s">
+      <c r="X108" s="6" t="s">
         <v>209</v>
       </c>
       <c r="Y108">
@@ -29922,7 +29925,7 @@
       <c r="AH108" t="s">
         <v>212</v>
       </c>
-      <c r="AI108" s="5">
+      <c r="AI108" s="4">
         <v>39933</v>
       </c>
       <c r="AJ108">
@@ -30089,13 +30092,13 @@
       <c r="J109">
         <v>2</v>
       </c>
-      <c r="K109" s="6">
+      <c r="K109" s="5">
         <v>5</v>
       </c>
       <c r="L109">
         <v>3</v>
       </c>
-      <c r="M109" s="8" t="s">
+      <c r="M109" s="6" t="s">
         <v>826</v>
       </c>
       <c r="N109" t="s">
@@ -30122,13 +30125,13 @@
       <c r="U109">
         <v>1</v>
       </c>
-      <c r="V109" s="6">
+      <c r="V109" s="5">
         <v>6</v>
       </c>
       <c r="W109">
         <v>4</v>
       </c>
-      <c r="X109" s="8" t="s">
+      <c r="X109" s="6" t="s">
         <v>827</v>
       </c>
       <c r="Y109">
@@ -30166,7 +30169,7 @@
       <c r="AH109" t="s">
         <v>70</v>
       </c>
-      <c r="AI109" s="5">
+      <c r="AI109" s="4">
         <v>38949</v>
       </c>
       <c r="AJ109">
@@ -30333,13 +30336,13 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" s="6">
+      <c r="K110" s="5">
         <v>3</v>
       </c>
       <c r="L110">
         <v>7</v>
       </c>
-      <c r="M110" s="8" t="s">
+      <c r="M110" s="6" t="s">
         <v>840</v>
       </c>
       <c r="N110" t="s">
@@ -30366,13 +30369,13 @@
       <c r="U110">
         <v>1</v>
       </c>
-      <c r="V110" s="6">
+      <c r="V110" s="5">
         <v>1</v>
       </c>
       <c r="W110">
         <v>9</v>
       </c>
-      <c r="X110" s="8" t="s">
+      <c r="X110" s="6" t="s">
         <v>841</v>
       </c>
       <c r="Y110">
@@ -30410,7 +30413,7 @@
       <c r="AH110" t="s">
         <v>842</v>
       </c>
-      <c r="AI110" s="5">
+      <c r="AI110" s="4">
         <v>40736</v>
       </c>
       <c r="AJ110">
@@ -30577,13 +30580,13 @@
       <c r="J111">
         <v>1</v>
       </c>
-      <c r="K111" s="6">
+      <c r="K111" s="5">
         <v>7</v>
       </c>
       <c r="L111">
         <v>2</v>
       </c>
-      <c r="M111" s="8" t="s">
+      <c r="M111" s="6" t="s">
         <v>851</v>
       </c>
       <c r="N111" t="s">
@@ -30610,13 +30613,13 @@
       <c r="U111">
         <v>2</v>
       </c>
-      <c r="V111" s="6">
+      <c r="V111" s="5">
         <v>8</v>
       </c>
       <c r="W111">
         <v>2</v>
       </c>
-      <c r="X111" s="8" t="s">
+      <c r="X111" s="6" t="s">
         <v>852</v>
       </c>
       <c r="Y111">
@@ -30654,7 +30657,7 @@
       <c r="AH111" t="s">
         <v>70</v>
       </c>
-      <c r="AI111" s="5">
+      <c r="AI111" s="4">
         <v>41068</v>
       </c>
       <c r="AJ111">
@@ -30821,13 +30824,13 @@
       <c r="J112">
         <v>5</v>
       </c>
-      <c r="K112" s="6">
+      <c r="K112" s="5">
         <v>2</v>
       </c>
       <c r="L112">
         <v>4</v>
       </c>
-      <c r="M112" s="8" t="s">
+      <c r="M112" s="6" t="s">
         <v>860</v>
       </c>
       <c r="N112" t="s">
@@ -30854,13 +30857,13 @@
       <c r="U112">
         <v>1</v>
       </c>
-      <c r="V112" s="6">
+      <c r="V112" s="5">
         <v>4</v>
       </c>
       <c r="W112">
         <v>5</v>
       </c>
-      <c r="X112" s="8" t="s">
+      <c r="X112" s="6" t="s">
         <v>861</v>
       </c>
       <c r="Y112">
@@ -30898,7 +30901,7 @@
       <c r="AH112" t="s">
         <v>70</v>
       </c>
-      <c r="AI112" s="5">
+      <c r="AI112" s="4">
         <v>40897</v>
       </c>
       <c r="AJ112">
@@ -31065,13 +31068,13 @@
       <c r="J113">
         <v>3</v>
       </c>
-      <c r="K113" s="6">
+      <c r="K113" s="5">
         <v>4</v>
       </c>
       <c r="L113">
         <v>5</v>
       </c>
-      <c r="M113" s="8" t="s">
+      <c r="M113" s="6" t="s">
         <v>868</v>
       </c>
       <c r="N113" t="s">
@@ -31098,13 +31101,13 @@
       <c r="U113">
         <v>2</v>
       </c>
-      <c r="V113" s="6">
+      <c r="V113" s="5">
         <v>6</v>
       </c>
       <c r="W113">
         <v>5</v>
       </c>
-      <c r="X113" s="8" t="s">
+      <c r="X113" s="6" t="s">
         <v>869</v>
       </c>
       <c r="Y113">
@@ -31142,7 +31145,7 @@
       <c r="AH113" t="s">
         <v>70</v>
       </c>
-      <c r="AI113" s="5">
+      <c r="AI113" s="4">
         <v>40849</v>
       </c>
       <c r="AJ113">
@@ -31309,13 +31312,13 @@
       <c r="J114">
         <v>1</v>
       </c>
-      <c r="K114" s="6">
+      <c r="K114" s="5">
         <v>1</v>
       </c>
       <c r="L114">
         <v>9</v>
       </c>
-      <c r="M114" s="8" t="s">
+      <c r="M114" s="6" t="s">
         <v>878</v>
       </c>
       <c r="N114" t="s">
@@ -31342,13 +31345,13 @@
       <c r="U114">
         <v>1</v>
       </c>
-      <c r="V114" s="6">
+      <c r="V114" s="5">
         <v>4</v>
       </c>
       <c r="W114">
         <v>7</v>
       </c>
-      <c r="X114" s="8" t="s">
+      <c r="X114" s="6" t="s">
         <v>879</v>
       </c>
       <c r="Y114" t="s">
@@ -31386,7 +31389,7 @@
       <c r="AH114" t="s">
         <v>70</v>
       </c>
-      <c r="AI114" s="5">
+      <c r="AI114" s="4">
         <v>40614</v>
       </c>
       <c r="AJ114">
@@ -31553,13 +31556,13 @@
       <c r="J115">
         <v>5</v>
       </c>
-      <c r="K115" s="6">
+      <c r="K115" s="5">
         <v>2</v>
       </c>
       <c r="L115">
         <v>9</v>
       </c>
-      <c r="M115" s="8" t="s">
+      <c r="M115" s="6" t="s">
         <v>883</v>
       </c>
       <c r="N115" t="s">
@@ -31586,13 +31589,13 @@
       <c r="U115">
         <v>3</v>
       </c>
-      <c r="V115" s="6">
+      <c r="V115" s="5">
         <v>8</v>
       </c>
       <c r="W115">
         <v>2</v>
       </c>
-      <c r="X115" s="8" t="s">
+      <c r="X115" s="6" t="s">
         <v>884</v>
       </c>
       <c r="Y115">
@@ -31630,7 +31633,7 @@
       <c r="AH115" t="s">
         <v>70</v>
       </c>
-      <c r="AI115" s="5">
+      <c r="AI115" s="4">
         <v>39631</v>
       </c>
       <c r="AJ115">
@@ -31797,13 +31800,13 @@
       <c r="J116">
         <v>3</v>
       </c>
-      <c r="K116" s="6">
+      <c r="K116" s="5">
         <v>8</v>
       </c>
       <c r="L116">
         <v>2</v>
       </c>
-      <c r="M116" s="8" t="s">
+      <c r="M116" s="6" t="s">
         <v>888</v>
       </c>
       <c r="N116" t="s">
@@ -31830,13 +31833,13 @@
       <c r="U116">
         <v>2</v>
       </c>
-      <c r="V116" s="6">
+      <c r="V116" s="5">
         <v>4</v>
       </c>
       <c r="W116">
         <v>7</v>
       </c>
-      <c r="X116" s="8" t="s">
+      <c r="X116" s="6" t="s">
         <v>889</v>
       </c>
       <c r="Y116">
@@ -31874,7 +31877,7 @@
       <c r="AH116" t="s">
         <v>890</v>
       </c>
-      <c r="AI116" s="5">
+      <c r="AI116" s="4">
         <v>39788</v>
       </c>
       <c r="AJ116">
@@ -32041,13 +32044,13 @@
       <c r="J117">
         <v>2</v>
       </c>
-      <c r="K117" s="6">
+      <c r="K117" s="5">
         <v>3</v>
       </c>
       <c r="L117">
         <v>4</v>
       </c>
-      <c r="M117" s="8" t="s">
+      <c r="M117" s="6" t="s">
         <v>906</v>
       </c>
       <c r="N117" t="s">
@@ -32074,13 +32077,13 @@
       <c r="U117">
         <v>2</v>
       </c>
-      <c r="V117" s="6">
+      <c r="V117" s="5">
         <v>5</v>
       </c>
       <c r="W117">
         <v>5</v>
       </c>
-      <c r="X117" s="8" t="s">
+      <c r="X117" s="6" t="s">
         <v>907</v>
       </c>
       <c r="Y117">
@@ -32118,7 +32121,7 @@
       <c r="AH117" t="s">
         <v>70</v>
       </c>
-      <c r="AI117" s="5">
+      <c r="AI117" s="4">
         <v>39290</v>
       </c>
       <c r="AJ117">
@@ -32285,13 +32288,13 @@
       <c r="J118">
         <v>3</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="5">
         <v>1</v>
       </c>
       <c r="L118">
         <v>9</v>
       </c>
-      <c r="M118" s="8" t="s">
+      <c r="M118" s="6" t="s">
         <v>914</v>
       </c>
       <c r="N118" t="s">
@@ -32318,13 +32321,13 @@
       <c r="U118">
         <v>1</v>
       </c>
-      <c r="V118" s="6">
+      <c r="V118" s="5">
         <v>3</v>
       </c>
       <c r="W118">
         <v>7</v>
       </c>
-      <c r="X118" s="8" t="s">
+      <c r="X118" s="6" t="s">
         <v>915</v>
       </c>
       <c r="Y118">
@@ -32362,7 +32365,7 @@
       <c r="AH118" t="s">
         <v>70</v>
       </c>
-      <c r="AI118" s="5">
+      <c r="AI118" s="4">
         <v>40888</v>
       </c>
       <c r="AJ118">
@@ -32529,13 +32532,13 @@
       <c r="J119">
         <v>1</v>
       </c>
-      <c r="K119" s="6">
+      <c r="K119" s="5">
         <v>3</v>
       </c>
       <c r="L119">
         <v>5</v>
       </c>
-      <c r="M119" s="8" t="s">
+      <c r="M119" s="6" t="s">
         <v>934</v>
       </c>
       <c r="N119" t="s">
@@ -32562,13 +32565,13 @@
       <c r="U119">
         <v>1</v>
       </c>
-      <c r="V119" s="6">
+      <c r="V119" s="5">
         <v>3</v>
       </c>
       <c r="W119">
         <v>5</v>
       </c>
-      <c r="X119" s="8" t="s">
+      <c r="X119" s="6" t="s">
         <v>936</v>
       </c>
       <c r="Y119" t="s">
@@ -32606,7 +32609,7 @@
       <c r="AH119" t="s">
         <v>70</v>
       </c>
-      <c r="AI119" s="5">
+      <c r="AI119" s="4">
         <v>38434</v>
       </c>
       <c r="AJ119">
@@ -32773,13 +32776,13 @@
       <c r="J120">
         <v>2</v>
       </c>
-      <c r="K120" s="6">
+      <c r="K120" s="5">
         <v>6</v>
       </c>
       <c r="L120">
         <v>2</v>
       </c>
-      <c r="M120" s="8" t="s">
+      <c r="M120" s="6" t="s">
         <v>945</v>
       </c>
       <c r="N120" t="s">
@@ -32806,13 +32809,13 @@
       <c r="U120">
         <v>4</v>
       </c>
-      <c r="V120" s="6">
+      <c r="V120" s="5">
         <v>6</v>
       </c>
       <c r="W120">
         <v>8</v>
       </c>
-      <c r="X120" s="8" t="s">
+      <c r="X120" s="6" t="s">
         <v>946</v>
       </c>
       <c r="Y120">
@@ -32850,7 +32853,7 @@
       <c r="AH120" t="s">
         <v>318</v>
       </c>
-      <c r="AI120" s="5">
+      <c r="AI120" s="4">
         <v>39773</v>
       </c>
       <c r="AJ120">
@@ -33017,19 +33020,19 @@
       <c r="J121">
         <v>2</v>
       </c>
-      <c r="K121" s="6">
+      <c r="K121" s="5">
         <v>8</v>
       </c>
       <c r="L121">
         <v>3</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M121" s="6" t="s">
         <v>951</v>
       </c>
       <c r="N121" t="s">
         <v>143</v>
       </c>
-      <c r="O121" s="3" t="s">
+      <c r="O121" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P121" t="s">
@@ -33050,13 +33053,13 @@
       <c r="U121" t="s">
         <v>143</v>
       </c>
-      <c r="V121" s="6" t="s">
+      <c r="V121" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W121" t="s">
         <v>143</v>
       </c>
-      <c r="X121" s="8" t="s">
+      <c r="X121" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y121" t="s">
@@ -33094,7 +33097,7 @@
       <c r="AH121" t="s">
         <v>318</v>
       </c>
-      <c r="AI121" s="5">
+      <c r="AI121" s="4">
         <v>40058</v>
       </c>
       <c r="AJ121" t="s">
@@ -33261,13 +33264,13 @@
       <c r="J122">
         <v>2</v>
       </c>
-      <c r="K122" s="6">
+      <c r="K122" s="5">
         <v>3</v>
       </c>
       <c r="L122">
         <v>5</v>
       </c>
-      <c r="M122" s="8" t="s">
+      <c r="M122" s="6" t="s">
         <v>956</v>
       </c>
       <c r="N122" t="s">
@@ -33294,13 +33297,13 @@
       <c r="U122">
         <v>2</v>
       </c>
-      <c r="V122" s="6">
+      <c r="V122" s="5">
         <v>3</v>
       </c>
       <c r="W122">
         <v>7</v>
       </c>
-      <c r="X122" s="8" t="s">
+      <c r="X122" s="6" t="s">
         <v>373</v>
       </c>
       <c r="Y122">
@@ -33338,7 +33341,7 @@
       <c r="AH122" t="s">
         <v>70</v>
       </c>
-      <c r="AI122" s="5">
+      <c r="AI122" s="4">
         <v>41122</v>
       </c>
       <c r="AJ122">
@@ -33505,13 +33508,13 @@
       <c r="J123">
         <v>5</v>
       </c>
-      <c r="K123" s="6">
+      <c r="K123" s="5">
         <v>4</v>
       </c>
       <c r="L123">
         <v>5</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M123" s="6" t="s">
         <v>959</v>
       </c>
       <c r="N123" t="s">
@@ -33538,13 +33541,13 @@
       <c r="U123">
         <v>5</v>
       </c>
-      <c r="V123" s="6">
+      <c r="V123" s="5">
         <v>3</v>
       </c>
       <c r="W123">
         <v>8</v>
       </c>
-      <c r="X123" s="8" t="s">
+      <c r="X123" s="6" t="s">
         <v>960</v>
       </c>
       <c r="Y123">
@@ -33582,7 +33585,7 @@
       <c r="AH123" t="s">
         <v>961</v>
       </c>
-      <c r="AI123" s="5">
+      <c r="AI123" s="4">
         <v>39056</v>
       </c>
       <c r="AJ123">
@@ -33749,13 +33752,13 @@
       <c r="J124">
         <v>5</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="5">
         <v>3</v>
       </c>
       <c r="L124">
         <v>5</v>
       </c>
-      <c r="M124" s="8" t="s">
+      <c r="M124" s="6" t="s">
         <v>969</v>
       </c>
       <c r="N124" t="s">
@@ -33782,13 +33785,13 @@
       <c r="U124">
         <v>1</v>
       </c>
-      <c r="V124" s="6">
+      <c r="V124" s="5">
         <v>3</v>
       </c>
       <c r="W124">
         <v>5</v>
       </c>
-      <c r="X124" s="8" t="s">
+      <c r="X124" s="6" t="s">
         <v>970</v>
       </c>
       <c r="Y124">
@@ -33826,7 +33829,7 @@
       <c r="AH124" t="s">
         <v>70</v>
       </c>
-      <c r="AI124" s="5">
+      <c r="AI124" s="4">
         <v>39034</v>
       </c>
       <c r="AJ124">
@@ -33993,13 +33996,13 @@
       <c r="J125">
         <v>4</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="5">
         <v>2</v>
       </c>
       <c r="L125">
         <v>9</v>
       </c>
-      <c r="M125" s="8" t="s">
+      <c r="M125" s="6" t="s">
         <v>975</v>
       </c>
       <c r="N125" t="s">
@@ -34026,13 +34029,13 @@
       <c r="U125">
         <v>3</v>
       </c>
-      <c r="V125" s="6">
+      <c r="V125" s="5">
         <v>5</v>
       </c>
       <c r="W125">
         <v>5</v>
       </c>
-      <c r="X125" s="8" t="s">
+      <c r="X125" s="6" t="s">
         <v>977</v>
       </c>
       <c r="Y125" t="s">
@@ -34070,7 +34073,7 @@
       <c r="AH125" t="s">
         <v>70</v>
       </c>
-      <c r="AI125" s="5">
+      <c r="AI125" s="4">
         <v>39431</v>
       </c>
       <c r="AJ125">
@@ -34237,13 +34240,13 @@
       <c r="J126">
         <v>2</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="5">
         <v>4</v>
       </c>
       <c r="L126">
         <v>5</v>
       </c>
-      <c r="M126" s="8" t="s">
+      <c r="M126" s="6" t="s">
         <v>981</v>
       </c>
       <c r="N126" t="s">
@@ -34270,13 +34273,13 @@
       <c r="U126">
         <v>2</v>
       </c>
-      <c r="V126" s="6">
+      <c r="V126" s="5">
         <v>5</v>
       </c>
       <c r="W126">
         <v>5</v>
       </c>
-      <c r="X126" s="8" t="s">
+      <c r="X126" s="6" t="s">
         <v>982</v>
       </c>
       <c r="Y126">
@@ -34314,7 +34317,7 @@
       <c r="AH126" t="s">
         <v>318</v>
       </c>
-      <c r="AI126" s="5">
+      <c r="AI126" s="4">
         <v>37942</v>
       </c>
       <c r="AJ126">
@@ -34481,13 +34484,13 @@
       <c r="J127">
         <v>4</v>
       </c>
-      <c r="K127" s="6">
+      <c r="K127" s="5">
         <v>3</v>
       </c>
       <c r="L127">
         <v>7</v>
       </c>
-      <c r="M127" s="8" t="s">
+      <c r="M127" s="6" t="s">
         <v>987</v>
       </c>
       <c r="N127" t="s">
@@ -34514,13 +34517,13 @@
       <c r="U127">
         <v>4</v>
       </c>
-      <c r="V127" s="6">
+      <c r="V127" s="5">
         <v>6</v>
       </c>
       <c r="W127">
         <v>3</v>
       </c>
-      <c r="X127" s="8" t="s">
+      <c r="X127" s="6" t="s">
         <v>988</v>
       </c>
       <c r="Y127">
@@ -34558,7 +34561,7 @@
       <c r="AH127" t="s">
         <v>989</v>
       </c>
-      <c r="AI127" s="5">
+      <c r="AI127" s="4">
         <v>37671</v>
       </c>
       <c r="AJ127">
@@ -34725,13 +34728,13 @@
       <c r="J128">
         <v>3</v>
       </c>
-      <c r="K128" s="6">
+      <c r="K128" s="5">
         <v>8</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
-      <c r="M128" s="8" t="s">
+      <c r="M128" s="6" t="s">
         <v>992</v>
       </c>
       <c r="N128" t="s">
@@ -34758,13 +34761,13 @@
       <c r="U128">
         <v>3</v>
       </c>
-      <c r="V128" s="6">
+      <c r="V128" s="5">
         <v>5</v>
       </c>
       <c r="W128">
         <v>4</v>
       </c>
-      <c r="X128" s="8" t="s">
+      <c r="X128" s="6" t="s">
         <v>993</v>
       </c>
       <c r="Y128">
@@ -34802,7 +34805,7 @@
       <c r="AH128" t="s">
         <v>318</v>
       </c>
-      <c r="AI128" s="5">
+      <c r="AI128" s="4">
         <v>38001</v>
       </c>
       <c r="AJ128">
@@ -34969,13 +34972,13 @@
       <c r="J129">
         <v>4</v>
       </c>
-      <c r="K129" s="6">
+      <c r="K129" s="5">
         <v>6</v>
       </c>
       <c r="L129">
         <v>2</v>
       </c>
-      <c r="M129" s="8" t="s">
+      <c r="M129" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="N129" t="s">
@@ -35002,13 +35005,13 @@
       <c r="U129">
         <v>4</v>
       </c>
-      <c r="V129" s="6">
+      <c r="V129" s="5">
         <v>4</v>
       </c>
       <c r="W129">
         <v>3</v>
       </c>
-      <c r="X129" s="8" t="s">
+      <c r="X129" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="Y129">
@@ -35046,7 +35049,7 @@
       <c r="AH129" t="s">
         <v>70</v>
       </c>
-      <c r="AI129" s="5">
+      <c r="AI129" s="4">
         <v>37414</v>
       </c>
       <c r="AJ129">
@@ -35213,13 +35216,13 @@
       <c r="J130">
         <v>5</v>
       </c>
-      <c r="K130" s="6">
+      <c r="K130" s="5">
         <v>4</v>
       </c>
       <c r="L130">
         <v>5</v>
       </c>
-      <c r="M130" s="8" t="s">
+      <c r="M130" s="6" t="s">
         <v>396</v>
       </c>
       <c r="N130" t="s">
@@ -35246,13 +35249,13 @@
       <c r="U130">
         <v>2</v>
       </c>
-      <c r="V130" s="6">
+      <c r="V130" s="5">
         <v>4</v>
       </c>
       <c r="W130">
         <v>5</v>
       </c>
-      <c r="X130" s="8" t="s">
+      <c r="X130" s="6" t="s">
         <v>1006</v>
       </c>
       <c r="Y130">
@@ -35290,7 +35293,7 @@
       <c r="AH130" t="s">
         <v>1007</v>
       </c>
-      <c r="AI130" s="5">
+      <c r="AI130" s="4">
         <v>38583</v>
       </c>
       <c r="AJ130">
@@ -35457,13 +35460,13 @@
       <c r="J131">
         <v>4</v>
       </c>
-      <c r="K131" s="6">
+      <c r="K131" s="5">
         <v>6</v>
       </c>
       <c r="L131">
         <v>2</v>
       </c>
-      <c r="M131" s="8" t="s">
+      <c r="M131" s="6" t="s">
         <v>1011</v>
       </c>
       <c r="N131" t="s">
@@ -35490,13 +35493,13 @@
       <c r="U131">
         <v>3</v>
       </c>
-      <c r="V131" s="6">
+      <c r="V131" s="5">
         <v>6</v>
       </c>
       <c r="W131">
         <v>5</v>
       </c>
-      <c r="X131" s="8" t="s">
+      <c r="X131" s="6" t="s">
         <v>1012</v>
       </c>
       <c r="Y131">
@@ -35517,7 +35520,7 @@
         <v>3</v>
       </c>
       <c r="AD131">
-        <f t="shared" ref="AD131:AD138" si="12">SUM(D131*3,K131*5,O131*3,V131*5)/2</f>
+        <f t="shared" ref="AD131:AD135" si="12">SUM(D131*3,K131*5,O131*3,V131*5)/2</f>
         <v>39</v>
       </c>
       <c r="AE131">
@@ -35534,7 +35537,7 @@
       <c r="AH131" t="s">
         <v>318</v>
       </c>
-      <c r="AI131" s="5">
+      <c r="AI131" s="4">
         <v>39199</v>
       </c>
       <c r="AJ131">
@@ -35701,13 +35704,13 @@
       <c r="J132">
         <v>2</v>
       </c>
-      <c r="K132" s="6">
+      <c r="K132" s="5">
         <v>7</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
-      <c r="M132" s="8" t="s">
+      <c r="M132" s="6" t="s">
         <v>1019</v>
       </c>
       <c r="N132" t="s">
@@ -35734,13 +35737,13 @@
       <c r="U132">
         <v>2</v>
       </c>
-      <c r="V132" s="6">
+      <c r="V132" s="5">
         <v>9</v>
       </c>
       <c r="W132">
         <v>1</v>
       </c>
-      <c r="X132" s="8" t="s">
+      <c r="X132" s="6" t="s">
         <v>1020</v>
       </c>
       <c r="Y132">
@@ -35778,7 +35781,7 @@
       <c r="AH132" t="s">
         <v>70</v>
       </c>
-      <c r="AI132" s="5">
+      <c r="AI132" s="4">
         <v>38804</v>
       </c>
       <c r="AJ132">
@@ -35945,13 +35948,13 @@
       <c r="J133">
         <v>4</v>
       </c>
-      <c r="K133" s="6">
+      <c r="K133" s="5">
         <v>4</v>
       </c>
       <c r="L133">
         <v>5</v>
       </c>
-      <c r="M133" s="8" t="s">
+      <c r="M133" s="6" t="s">
         <v>1025</v>
       </c>
       <c r="N133" t="s">
@@ -35978,13 +35981,13 @@
       <c r="U133" t="s">
         <v>143</v>
       </c>
-      <c r="V133" s="6">
+      <c r="V133" s="5">
         <v>3</v>
       </c>
       <c r="W133">
         <v>7</v>
       </c>
-      <c r="X133" s="8" t="s">
+      <c r="X133" s="6" t="s">
         <v>1026</v>
       </c>
       <c r="Y133">
@@ -36022,7 +36025,7 @@
       <c r="AH133" t="s">
         <v>70</v>
       </c>
-      <c r="AI133" s="5">
+      <c r="AI133" s="4">
         <v>38757</v>
       </c>
       <c r="AJ133">
@@ -36189,13 +36192,13 @@
       <c r="J134">
         <v>1</v>
       </c>
-      <c r="K134" s="6">
+      <c r="K134" s="5">
         <v>3</v>
       </c>
       <c r="L134">
         <v>7</v>
       </c>
-      <c r="M134" s="8" t="s">
+      <c r="M134" s="6" t="s">
         <v>1031</v>
       </c>
       <c r="N134" t="s">
@@ -36222,13 +36225,13 @@
       <c r="U134">
         <v>3</v>
       </c>
-      <c r="V134" s="6">
+      <c r="V134" s="5">
         <v>2</v>
       </c>
       <c r="W134">
         <v>4</v>
       </c>
-      <c r="X134" s="8" t="s">
+      <c r="X134" s="6" t="s">
         <v>1032</v>
       </c>
       <c r="Y134">
@@ -36266,7 +36269,7 @@
       <c r="AH134" t="s">
         <v>70</v>
       </c>
-      <c r="AI134" s="5">
+      <c r="AI134" s="4">
         <v>38503</v>
       </c>
       <c r="AJ134">
@@ -36433,13 +36436,13 @@
       <c r="J135">
         <v>3</v>
       </c>
-      <c r="K135" s="6">
+      <c r="K135" s="5">
         <v>9</v>
       </c>
       <c r="L135">
         <v>2</v>
       </c>
-      <c r="M135" s="8" t="s">
+      <c r="M135" s="6" t="s">
         <v>1043</v>
       </c>
       <c r="N135" t="s">
@@ -36466,13 +36469,13 @@
       <c r="U135">
         <v>1</v>
       </c>
-      <c r="V135" s="6">
+      <c r="V135" s="5">
         <v>2</v>
       </c>
       <c r="W135">
         <v>9</v>
       </c>
-      <c r="X135" s="8" t="s">
+      <c r="X135" s="6" t="s">
         <v>1044</v>
       </c>
       <c r="Y135">
@@ -36510,7 +36513,7 @@
       <c r="AH135" t="s">
         <v>197</v>
       </c>
-      <c r="AI135" s="5">
+      <c r="AI135" s="4">
         <v>38547</v>
       </c>
       <c r="AJ135">
@@ -36677,19 +36680,19 @@
       <c r="J136">
         <v>2</v>
       </c>
-      <c r="K136" s="6">
+      <c r="K136" s="5">
         <v>3</v>
       </c>
       <c r="L136">
         <v>5</v>
       </c>
-      <c r="M136" s="8" t="s">
+      <c r="M136" s="6" t="s">
         <v>1049</v>
       </c>
       <c r="N136" t="s">
         <v>143</v>
       </c>
-      <c r="O136" s="3" t="s">
+      <c r="O136" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P136" t="s">
@@ -36710,13 +36713,13 @@
       <c r="U136" t="s">
         <v>143</v>
       </c>
-      <c r="V136" s="6" t="s">
+      <c r="V136" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W136" t="s">
         <v>143</v>
       </c>
-      <c r="X136" s="8" t="s">
+      <c r="X136" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y136">
@@ -36754,7 +36757,7 @@
       <c r="AH136" t="s">
         <v>197</v>
       </c>
-      <c r="AI136" s="5">
+      <c r="AI136" s="4">
         <v>38916</v>
       </c>
       <c r="AJ136">
@@ -36921,19 +36924,19 @@
       <c r="J137">
         <v>1</v>
       </c>
-      <c r="K137" s="6">
+      <c r="K137" s="5">
         <v>3</v>
       </c>
       <c r="L137">
         <v>5</v>
       </c>
-      <c r="M137" s="8" t="s">
+      <c r="M137" s="6" t="s">
         <v>1052</v>
       </c>
       <c r="N137" t="s">
         <v>143</v>
       </c>
-      <c r="O137" s="3" t="s">
+      <c r="O137" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P137" t="s">
@@ -36954,13 +36957,13 @@
       <c r="U137" t="s">
         <v>143</v>
       </c>
-      <c r="V137" s="6" t="s">
+      <c r="V137" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W137" t="s">
         <v>143</v>
       </c>
-      <c r="X137" s="8" t="s">
+      <c r="X137" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y137">
@@ -36998,7 +37001,7 @@
       <c r="AH137" t="s">
         <v>197</v>
       </c>
-      <c r="AI137" s="5">
+      <c r="AI137" s="4">
         <v>38466</v>
       </c>
       <c r="AJ137">
@@ -37165,19 +37168,19 @@
       <c r="J138">
         <v>3</v>
       </c>
-      <c r="K138" s="6">
+      <c r="K138" s="5">
         <v>1</v>
       </c>
       <c r="L138">
         <v>9</v>
       </c>
-      <c r="M138" s="8" t="s">
+      <c r="M138" s="6" t="s">
         <v>543</v>
       </c>
       <c r="N138" t="s">
         <v>143</v>
       </c>
-      <c r="O138" s="3" t="s">
+      <c r="O138" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P138" t="s">
@@ -37198,13 +37201,13 @@
       <c r="U138" t="s">
         <v>143</v>
       </c>
-      <c r="V138" s="6" t="s">
+      <c r="V138" s="5" t="s">
         <v>143</v>
       </c>
       <c r="W138" t="s">
         <v>143</v>
       </c>
-      <c r="X138" s="8" t="s">
+      <c r="X138" s="6" t="s">
         <v>143</v>
       </c>
       <c r="Y138">
@@ -37242,7 +37245,7 @@
       <c r="AH138" t="s">
         <v>1057</v>
       </c>
-      <c r="AI138" s="5">
+      <c r="AI138" s="4">
         <v>38866</v>
       </c>
       <c r="AJ138">
@@ -37379,12 +37382,12 @@
       </c>
     </row>
     <row r="139" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L139" s="6"/>
-      <c r="O139" s="6"/>
+      <c r="L139" s="5"/>
+      <c r="O139" s="5"/>
     </row>
     <row r="144" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:CA138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -37397,12 +37400,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37564,15 +37564,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E2E0AA-3B5A-476D-B7B0-BDB32D9A34B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6C0014-D2A8-4E5B-B295-232194350009}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fb6fc513-e9f0-431e-9913-70ac38e47910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37596,17 +37607,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E6C0014-D2A8-4E5B-B295-232194350009}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E2E0AA-3B5A-476D-B7B0-BDB32D9A34B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fb6fc513-e9f0-431e-9913-70ac38e47910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>